--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12CCF9-60A5-4FBA-A67E-52491542EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Data" sheetId="5" r:id="rId2"/>
     <sheet name="Psgr LDV Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="Freight LDVs" sheetId="13" r:id="rId4"/>
-    <sheet name="Heavy freight" sheetId="7" r:id="rId5"/>
-    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId6"/>
+    <sheet name="EV freight LDVs" sheetId="7" r:id="rId4"/>
+    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId5"/>
+    <sheet name="CARB ACT ISOR" sheetId="9" r:id="rId6"/>
     <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId7"/>
     <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -32,43 +32,42 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_2014_eGRID_Subregion_File">#REF!</definedName>
     <definedName name="AEO">[1]Safety!$L$2</definedName>
-    <definedName name="asdf">[2]About!$A$113</definedName>
-    <definedName name="compa">[3]PROVP!#REF!</definedName>
-    <definedName name="Comparaison">[3]PROVP!$A:$A</definedName>
-    <definedName name="cpi_2010to2012">[4]About!#REF!</definedName>
-    <definedName name="cpi_2014to2012">[4]About!#REF!</definedName>
-    <definedName name="cpi_2017to2012">[4]About!$A$121</definedName>
-    <definedName name="cpi_2018to2012">[4]About!$A$122</definedName>
-    <definedName name="cpi_2019to2012">[4]About!$A$123</definedName>
-    <definedName name="cpi_2020to2012">[4]About!$A$124</definedName>
+    <definedName name="asdf">[8]About!$A$113</definedName>
+    <definedName name="compa">[2]PROVP!#REF!</definedName>
+    <definedName name="Comparaison">[2]PROVP!$A:$A</definedName>
+    <definedName name="cpi_2010to2012">[7]About!#REF!</definedName>
+    <definedName name="cpi_2014to2012">[7]About!#REF!</definedName>
+    <definedName name="cpi_2017to2012">[7]About!$A$121</definedName>
+    <definedName name="cpi_2018to2012">[7]About!$A$122</definedName>
+    <definedName name="cpi_2019to2012">[7]About!$A$123</definedName>
+    <definedName name="cpi_2020to2012">[7]About!$A$124</definedName>
     <definedName name="cut_allowed_LT">[1]Safety!$L$6</definedName>
     <definedName name="cut_allowed_PC">[1]Safety!$L$5</definedName>
     <definedName name="cut_safety_LT">[1]Safety!$AK$8</definedName>
     <definedName name="cut_safety_PC">[1]Safety!$AK$7</definedName>
-    <definedName name="gC_kWh">[5]INPUTS!$B$32</definedName>
-    <definedName name="gCO2_gC">[5]INPUTS!$B$34</definedName>
-    <definedName name="H2_kg_to_MMBtu">[6]Constants!$D$7</definedName>
-    <definedName name="Impres_titres_MI">[3]PROVP!$A:$A</definedName>
-    <definedName name="kWh_to_Btu">[6]Constants!$D$4</definedName>
-    <definedName name="mode">[7]Config!$AD$7:$AD$19</definedName>
-    <definedName name="P91_">[3]PROVP!#REF!</definedName>
-    <definedName name="P92_">[3]PROVP!#REF!</definedName>
-    <definedName name="Renewable_and_Non_Renewable_Generation">[8]Contents!#REF!</definedName>
-    <definedName name="Scenario">[9]Targets_byFleet!$A$1</definedName>
+    <definedName name="gC_kWh">[3]INPUTS!$B$32</definedName>
+    <definedName name="gCO2_gC">[3]INPUTS!$B$34</definedName>
+    <definedName name="H2_kg_to_MMBtu">[9]Constants!$D$7</definedName>
+    <definedName name="Impres_titres_MI">[2]PROVP!$A:$A</definedName>
+    <definedName name="kWh_to_Btu">[9]Constants!$D$4</definedName>
+    <definedName name="mode">[4]Config!$AD$7:$AD$19</definedName>
+    <definedName name="P91_">[2]PROVP!#REF!</definedName>
+    <definedName name="P92_">[2]PROVP!#REF!</definedName>
+    <definedName name="Renewable_and_Non_Renewable_Generation">[5]Contents!#REF!</definedName>
+    <definedName name="Scenario">[6]Targets_byFleet!$A$1</definedName>
     <definedName name="TableName">"Dummy"</definedName>
     <definedName name="tblVspecsData">#REF!</definedName>
     <definedName name="tblVspecsHeader">#REF!</definedName>
-    <definedName name="Transmission_loss">[5]kWhpMi!$G$1</definedName>
-    <definedName name="UF_REEV20">[5]kWhpMi!$M$5</definedName>
-    <definedName name="UF_REEV40">[5]kWhpMi!$M$4</definedName>
+    <definedName name="Transmission_loss">[3]kWhpMi!$G$1</definedName>
+    <definedName name="UF_REEV20">[3]kWhpMi!$M$5</definedName>
+    <definedName name="UF_REEV40">[3]kWhpMi!$M$4</definedName>
     <definedName name="WRcap_2021">[1]Safety!$L$3</definedName>
     <definedName name="WRcap_2025">[1]Safety!$L$4</definedName>
-    <definedName name="Zone_impres_MI">[3]PROVP!$B$5:$B$90</definedName>
+    <definedName name="Zone_impres_MI">[2]PROVP!$B$5:$B$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
   <si>
     <t>Sources:</t>
   </si>
@@ -334,6 +333,9 @@
     <t>In the US, we use this value as a calibrating parameter and choose values that align our EV cost declines</t>
   </si>
   <si>
+    <t>for passenger LDVs with the cited NAP study.</t>
+  </si>
+  <si>
     <t>EIA</t>
   </si>
   <si>
@@ -343,9 +345,15 @@
     <t>Annual Energy Outlook 2021</t>
   </si>
   <si>
+    <t>Table 38</t>
+  </si>
+  <si>
     <t>Passenger LDV EV Cost</t>
   </si>
   <si>
+    <t>Passenger LDV Sales Share by Vehicle Class</t>
+  </si>
+  <si>
     <t>6-7</t>
   </si>
   <si>
@@ -373,15 +381,39 @@
     <t>Battery size</t>
   </si>
   <si>
+    <t>Average vehicle cost 2024</t>
+  </si>
+  <si>
     <t>2024 Vehicle cost</t>
   </si>
   <si>
+    <t>Battery share</t>
+  </si>
+  <si>
     <t>Battery cost (as in CARB, $173.8 in 2024)</t>
   </si>
   <si>
+    <t>Vehicle plus battery cost (2024)</t>
+  </si>
+  <si>
+    <t>Vehicle cost not including battery</t>
+  </si>
+  <si>
     <t>Calculations to find vehicle cost not including battery</t>
   </si>
   <si>
+    <t>total LDV freight</t>
+  </si>
+  <si>
+    <t>Sales shared for LDV freight - total</t>
+  </si>
+  <si>
+    <t>Share of battery for EPS purposes</t>
+  </si>
+  <si>
+    <t>Vehicle including battery</t>
+  </si>
+  <si>
     <t>Calculate with BNEF 2019 battery pack cost (capacity weighted average)</t>
   </si>
   <si>
@@ -460,6 +492,84 @@
     <t>Use same battery price as LDVs, in line with ICCT's assumption:</t>
   </si>
   <si>
+    <t>Ratio of natural gas to diesel</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Natural Gas - LDV per AEO and USEPS</t>
+  </si>
+  <si>
+    <t>ISOR states:</t>
+  </si>
+  <si>
+    <t>Diesel fraction within class 2b-3</t>
+  </si>
+  <si>
+    <t>Ratio of Fuel Cell to Electric</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractor - Fuel Cell</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractor - Electric</t>
+  </si>
+  <si>
+    <t>Class 8 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 8 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>Class 6-7 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 6-7 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>Class 4-5 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 4-5 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Electric Long Range</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Electric Normal Range</t>
+  </si>
+  <si>
+    <t>2030 MY</t>
+  </si>
+  <si>
+    <t>2029 MY</t>
+  </si>
+  <si>
+    <t>2028 MY</t>
+  </si>
+  <si>
+    <t>2027 MY</t>
+  </si>
+  <si>
+    <t>2026 MY</t>
+  </si>
+  <si>
+    <t>2025 MY</t>
+  </si>
+  <si>
+    <t>2024 MY</t>
+  </si>
+  <si>
+    <t>Vehicle Group</t>
+  </si>
+  <si>
+    <t>Sales Share - DIESEL ONLY (2024-2030)</t>
+  </si>
+  <si>
+    <t>Class 8</t>
+  </si>
+  <si>
     <t>Class 6-7</t>
   </si>
   <si>
@@ -469,9 +579,120 @@
     <t>Class 2b-3</t>
   </si>
   <si>
+    <t>LDV Freight</t>
+  </si>
+  <si>
+    <t>BEV and FCEV Price Forecasts:</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>Calculated LDV Avg - Gasoline</t>
+  </si>
+  <si>
+    <t>Use ratio of Gasoline/Diesel for Class 2b-3 for calculated gasoline value:</t>
+  </si>
+  <si>
+    <t>Calculated LDV Avg - Diesel</t>
+  </si>
+  <si>
+    <t>2012 $s</t>
+  </si>
+  <si>
+    <t>2018 $s</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractors</t>
+  </si>
+  <si>
+    <t>LDV freight sales - DIESEL ONLY</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Diesel</t>
+  </si>
+  <si>
+    <t>This file uses EIA's definition that includes Class 8 non-tractors in vocational vehicles/LDV freight.</t>
+  </si>
+  <si>
+    <t>Class 2b-3 - Gasoline</t>
+  </si>
+  <si>
+    <t>* E3 categorizes Class 8 non-tractors and Class 7-8 tractors as HDV freight.</t>
+  </si>
+  <si>
+    <t>Vehicle Price</t>
+  </si>
+  <si>
+    <t>Sales Share (2024-2030)</t>
+  </si>
+  <si>
+    <t>Class 7-8 Tractor</t>
+  </si>
+  <si>
+    <t>Gasoline and Diesel Vehicle Starting Prices:</t>
+  </si>
+  <si>
+    <t>HDV Freight</t>
+  </si>
+  <si>
+    <t>Note that E3 groups Class 8 non-tractors with Class 7-8 tractors in HDV freight.</t>
+  </si>
+  <si>
+    <t>*Vocational Vehicles encompass Class 8 non-tractor vehicles according to the EIA.</t>
+  </si>
+  <si>
+    <t>Calculated LDV Average</t>
+  </si>
+  <si>
+    <t>Tractors</t>
+  </si>
+  <si>
+    <t>Vocational Vehicles*</t>
+  </si>
+  <si>
+    <t>Model Year</t>
+  </si>
+  <si>
+    <t>Class 2b-3 Pickup/Van</t>
+  </si>
+  <si>
+    <t>2027-2030 MY</t>
+  </si>
+  <si>
+    <t>2024-2026 MY</t>
+  </si>
+  <si>
+    <t>2021-2023 MY</t>
+  </si>
+  <si>
+    <t>In 2012 $s for rows 20 and 21</t>
+  </si>
+  <si>
+    <t>Sales - diesel and gasoline</t>
+  </si>
+  <si>
+    <t>Added notes/calculation</t>
+  </si>
+  <si>
+    <t>Copied from CARB source</t>
+  </si>
+  <si>
+    <t>Color Key:</t>
+  </si>
+  <si>
     <t>https://ww3.arb.ca.gov/regact/2019/act2019/isor.pdf</t>
   </si>
   <si>
+    <t>PUBLIC HEARING TO CONSIDER THE PROPOSED ADVANCED CLEAN TRUCKS REGULATION</t>
+  </si>
+  <si>
+    <t>Source: CARB</t>
+  </si>
+  <si>
+    <t>LDV-freight</t>
+  </si>
+  <si>
     <t>CARB</t>
   </si>
   <si>
@@ -493,46 +714,7 @@
     <t>"MDV &amp; HDV Decarbonization" sheet</t>
   </si>
   <si>
-    <t>Percent of vehicle that is battery</t>
-  </si>
-  <si>
-    <t>2019 USD</t>
-  </si>
-  <si>
-    <t>2012 USD</t>
-  </si>
-  <si>
-    <t>Weighted Average</t>
-  </si>
-  <si>
-    <t>2019 to 2012 USD (see cpi.xlsx)</t>
-  </si>
-  <si>
-    <t>Start Year Freight LDV price (see BNVP)</t>
-  </si>
-  <si>
-    <t>% Decline by 2030</t>
-  </si>
-  <si>
-    <t>2030 Freight LDV price from EPS (calibrated)</t>
-  </si>
-  <si>
-    <t>% Decline by 2030 (calibrated)</t>
-  </si>
-  <si>
-    <t>for passenger LDVs with the cited NAP study and for freight LDVs with CARB.</t>
-  </si>
-  <si>
-    <t>For other vehicle types, we use CARB data to calculate a battery share for heavy freight vehicles.</t>
-  </si>
-  <si>
-    <t>All other vehicle types</t>
-  </si>
-  <si>
-    <t>Table 38, Table 44, Table 49</t>
-  </si>
-  <si>
-    <t>Sales Share by Vehicle Class</t>
+    <t>For other vehicle types, we use the LDV-freight calculations</t>
   </si>
 </sst>
 </file>
@@ -544,7 +726,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,8 +777,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,8 +866,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -702,8 +905,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -717,9 +997,8 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -762,6 +1041,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -771,9 +1053,70 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
     <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{FEE8019A-152E-4283-8314-55D41AB83B33}"/>
@@ -781,7 +1124,6 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C503966-CFFD-4326-9D3B-E3B164AC8CF2}"/>
-    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{645FBC49-E98E-4F54-99F5-8C4D00B6C436}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{BA852934-A7AE-493A-80C5-3659A52B75F9}"/>
   </cellStyles>
@@ -1905,16 +2247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>599244</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>151838</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>551619</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>113738</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1937,8 +2279,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6819900" y="177800"/>
-          <a:ext cx="6647619" cy="4498413"/>
+          <a:off x="4943475" y="323850"/>
+          <a:ext cx="6647619" cy="4495238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1949,16 +2291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392659</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>75421</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>313284</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>46846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1981,8 +2323,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5540375" y="4702175"/>
-          <a:ext cx="8330159" cy="6231746"/>
+          <a:off x="3638550" y="4854575"/>
+          <a:ext cx="8323809" cy="6231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,55 +2337,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>159859</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>163511</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878F466F-A745-48FC-9BC4-1AFD8EBC4BC7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="311150"/>
-          <a:ext cx="5611334" cy="1135061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2165,6 +2458,244 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5056359" cy="1063625"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F769AE-BF9F-4E37-87F8-C727D60B49FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1657350"/>
+          <a:ext cx="5056359" cy="1063625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2858789" cy="1708946"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BA4FE6-91A3-40A6-A3D2-C455164B9096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11906" y="5237160"/>
+          <a:ext cx="2858789" cy="1708946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7938</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5608159" cy="1141411"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E9903-FA14-4D2E-AE15-CE9847D7771D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8110538"/>
+          <a:ext cx="5608159" cy="1141411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28070</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6259513" cy="856166"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0552C69B-315A-455F-9343-80E800709370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31751" y="9235570"/>
+          <a:ext cx="6259513" cy="856166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6052442" cy="2014537"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A26EA4-5529-432D-9808-0A9ECB2E1D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3079750" y="534988"/>
+          <a:ext cx="6052442" cy="2014537"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>198439</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6132513" cy="1539900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DE5A9A-25F5-47A3-AADE-919455275704}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="-5820" t="58889" r="8022" b="-2256"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="198439" y="14346237"/>
+          <a:ext cx="6132513" cy="1539900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2178,50 +2709,265 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Comparisons"/>
-      <sheetName val="EPS Results"/>
-      <sheetName val="Table 38"/>
-      <sheetName val="Table 44"/>
-      <sheetName val="Table 49"/>
-      <sheetName val="NAP"/>
-      <sheetName val="CARB"/>
-      <sheetName val="Currency Conversion"/>
+      <sheetName val="PROVP"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="42">
-          <cell r="B42">
-            <v>0.67491530146662049</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>0.19259262430771532</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>0.13249207422566411</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INPUTS"/>
+      <sheetName val="kWhpMi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Contents"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Targets_byFleet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Table 44"/>
+      <sheetName val="Table 49"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="Table_38"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 52"/>
+      <sheetName val="NREL_ATB_2020"/>
+      <sheetName val="NREL Calcs"/>
+      <sheetName val="LDV Cost Calcs"/>
+      <sheetName val="PHEV Price Calcs"/>
+      <sheetName val="Start Year psgr LDV EV Price"/>
+      <sheetName val="LDV Shares"/>
+      <sheetName val="EV freight LDVs"/>
+      <sheetName val="EV freight truck batteries"/>
+      <sheetName val="CARB ACT ISOR"/>
+      <sheetName val="Freight HDVs"/>
+      <sheetName val="Hydrogen Vehicle Calcs"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="121">
+          <cell r="A121">
+            <v>0.93665959530026111</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>0.91400000000000003</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>0.89805481563188172</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>0.88711067149387013</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="26">
+          <cell r="K26">
+            <v>970.98468000000003</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>981.23956299999998</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>966.18756099999996</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>953.71936000000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>966.38690199999996</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>964.77038600000003</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>940.58337400000005</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="26">
+          <cell r="K26">
+            <v>296.49893200000002</v>
+          </cell>
+          <cell r="U26">
+            <v>217.47422800000001</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="K27">
+            <v>295.82556199999999</v>
+          </cell>
+          <cell r="U27">
+            <v>216.90455600000001</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="K28">
+            <v>291.37560999999999</v>
+          </cell>
+          <cell r="U28">
+            <v>217.18345600000001</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="K29">
+            <v>286.20315599999998</v>
+          </cell>
+          <cell r="U29">
+            <v>221.50202899999999</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="K30">
+            <v>287.59738199999998</v>
+          </cell>
+          <cell r="U30">
+            <v>230.97200000000001</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="K31">
+            <v>284.73254400000002</v>
+          </cell>
+          <cell r="U31">
+            <v>230.983047</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="K32">
+            <v>273.59762599999999</v>
+          </cell>
+          <cell r="U32">
+            <v>222.50271599999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2286,108 +3032,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="PROVP"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Table 44"/>
-      <sheetName val="Table 49"/>
-      <sheetName val="AEO 39"/>
-      <sheetName val="Table_38"/>
-      <sheetName val="AEO 42"/>
-      <sheetName val="AEO 52"/>
-      <sheetName val="NREL_ATB_2020"/>
-      <sheetName val="NREL Calcs"/>
-      <sheetName val="LDV Cost Calcs"/>
-      <sheetName val="PHEV Price Calcs"/>
-      <sheetName val="Start Year psgr LDV EV Price"/>
-      <sheetName val="CARB ACT ISOR"/>
-      <sheetName val="LDV Shares"/>
-      <sheetName val="Freight HDVs"/>
-      <sheetName val="Hydrogen Vehicle Calcs"/>
-      <sheetName val="Passenger Aircraft"/>
-      <sheetName val="Ships"/>
-      <sheetName val="Motorbikes"/>
-      <sheetName val="BNVP-LDVs-psgr"/>
-      <sheetName val="BNVP-LDVs-frgt"/>
-      <sheetName val="BNVP-HDVs-psgr"/>
-      <sheetName val="BNVP-HDVs-frgt"/>
-      <sheetName val="BNVP-aircraft-psgr"/>
-      <sheetName val="BNVP-aircraft-frgt"/>
-      <sheetName val="BNVP-rail-psgr"/>
-      <sheetName val="BNVP-rail-frgt"/>
-      <sheetName val="BNVP-ships-psgr"/>
-      <sheetName val="BNVP-ships-frgt"/>
-      <sheetName val="BNVP-motorbikes-psgr"/>
-      <sheetName val="BNVP-motorbikes-frgt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="INPUTS"/>
-      <sheetName val="kWhpMi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2446,45 +3091,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Contents"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Targets_byFleet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2811,10 +3417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2832,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -2862,12 +3468,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>148</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -2877,27 +3483,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2907,22 +3513,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="45" t="s">
-        <v>127</v>
+      <c r="B21" s="77" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>130</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>131</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2932,17 +3538,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>132</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="43" t="s">
-        <v>133</v>
+      <c r="B27" s="46" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2960,27 +3566,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>139</v>
-      </c>
-      <c r="B39">
-        <v>0.89805481563188172</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -15680,8 +16278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9DD83-4E8C-4A41-986C-F727F17C4502}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15992,474 +16590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA837DA2-0F73-4943-9F40-28FFCE3BE017}">
-  <dimension ref="A9:AF27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B10">
-        <v>2020</v>
-      </c>
-      <c r="C10">
-        <v>2021</v>
-      </c>
-      <c r="D10">
-        <v>2022</v>
-      </c>
-      <c r="E10">
-        <v>2023</v>
-      </c>
-      <c r="F10">
-        <v>2024</v>
-      </c>
-      <c r="G10">
-        <v>2025</v>
-      </c>
-      <c r="H10">
-        <v>2026</v>
-      </c>
-      <c r="I10">
-        <v>2027</v>
-      </c>
-      <c r="J10">
-        <v>2028</v>
-      </c>
-      <c r="K10">
-        <v>2029</v>
-      </c>
-      <c r="L10">
-        <v>2030</v>
-      </c>
-      <c r="M10">
-        <v>2031</v>
-      </c>
-      <c r="N10">
-        <v>2032</v>
-      </c>
-      <c r="O10">
-        <v>2033</v>
-      </c>
-      <c r="P10">
-        <v>2034</v>
-      </c>
-      <c r="Q10">
-        <v>2035</v>
-      </c>
-      <c r="R10">
-        <v>2036</v>
-      </c>
-      <c r="S10">
-        <v>2037</v>
-      </c>
-      <c r="T10">
-        <v>2038</v>
-      </c>
-      <c r="U10">
-        <v>2039</v>
-      </c>
-      <c r="V10">
-        <v>2040</v>
-      </c>
-      <c r="W10">
-        <v>2041</v>
-      </c>
-      <c r="X10">
-        <v>2042</v>
-      </c>
-      <c r="Y10">
-        <v>2043</v>
-      </c>
-      <c r="Z10">
-        <v>2044</v>
-      </c>
-      <c r="AA10">
-        <v>2045</v>
-      </c>
-      <c r="AB10">
-        <v>2046</v>
-      </c>
-      <c r="AC10">
-        <v>2047</v>
-      </c>
-      <c r="AD10">
-        <v>2048</v>
-      </c>
-      <c r="AE10">
-        <v>2049</v>
-      </c>
-      <c r="AF10">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11">
-        <v>64896</v>
-      </c>
-      <c r="G11">
-        <v>63635</v>
-      </c>
-      <c r="H11">
-        <v>62599</v>
-      </c>
-      <c r="I11">
-        <v>61684</v>
-      </c>
-      <c r="J11">
-        <v>60829</v>
-      </c>
-      <c r="K11">
-        <v>60035</v>
-      </c>
-      <c r="L11">
-        <v>59241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12">
-        <v>80127</v>
-      </c>
-      <c r="G12">
-        <v>77616</v>
-      </c>
-      <c r="H12">
-        <v>75585</v>
-      </c>
-      <c r="I12">
-        <v>73852</v>
-      </c>
-      <c r="J12">
-        <v>72267</v>
-      </c>
-      <c r="K12">
-        <v>70830</v>
-      </c>
-      <c r="L12">
-        <v>69394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13">
-        <v>116174</v>
-      </c>
-      <c r="G13">
-        <v>112591</v>
-      </c>
-      <c r="H13">
-        <v>109702</v>
-      </c>
-      <c r="I13">
-        <v>107253</v>
-      </c>
-      <c r="J13">
-        <v>105025</v>
-      </c>
-      <c r="K13">
-        <v>103016</v>
-      </c>
-      <c r="L13">
-        <v>101008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B16">
-        <v>2020</v>
-      </c>
-      <c r="C16">
-        <v>2021</v>
-      </c>
-      <c r="D16">
-        <v>2022</v>
-      </c>
-      <c r="E16">
-        <v>2023</v>
-      </c>
-      <c r="F16">
-        <v>2024</v>
-      </c>
-      <c r="G16">
-        <v>2025</v>
-      </c>
-      <c r="H16">
-        <v>2026</v>
-      </c>
-      <c r="I16">
-        <v>2027</v>
-      </c>
-      <c r="J16">
-        <v>2028</v>
-      </c>
-      <c r="K16">
-        <v>2029</v>
-      </c>
-      <c r="L16">
-        <v>2030</v>
-      </c>
-      <c r="M16">
-        <v>2031</v>
-      </c>
-      <c r="N16">
-        <v>2032</v>
-      </c>
-      <c r="O16">
-        <v>2033</v>
-      </c>
-      <c r="P16">
-        <v>2034</v>
-      </c>
-      <c r="Q16">
-        <v>2035</v>
-      </c>
-      <c r="R16">
-        <v>2036</v>
-      </c>
-      <c r="S16">
-        <v>2037</v>
-      </c>
-      <c r="T16">
-        <v>2038</v>
-      </c>
-      <c r="U16">
-        <v>2039</v>
-      </c>
-      <c r="V16">
-        <v>2040</v>
-      </c>
-      <c r="W16">
-        <v>2041</v>
-      </c>
-      <c r="X16">
-        <v>2042</v>
-      </c>
-      <c r="Y16">
-        <v>2043</v>
-      </c>
-      <c r="Z16">
-        <v>2044</v>
-      </c>
-      <c r="AA16">
-        <v>2045</v>
-      </c>
-      <c r="AB16">
-        <v>2046</v>
-      </c>
-      <c r="AC16">
-        <v>2047</v>
-      </c>
-      <c r="AD16">
-        <v>2048</v>
-      </c>
-      <c r="AE16">
-        <v>2049</v>
-      </c>
-      <c r="AF16">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17">
-        <f>F11*About!$B$39</f>
-        <v>58280.165315246595</v>
-      </c>
-      <c r="G17">
-        <f>G11*About!$B$39</f>
-        <v>57147.718192734792</v>
-      </c>
-      <c r="H17">
-        <f>H11*About!$B$39</f>
-        <v>56217.333403740166</v>
-      </c>
-      <c r="I17">
-        <f>I11*About!$B$39</f>
-        <v>55395.613247436995</v>
-      </c>
-      <c r="J17">
-        <f>J11*About!$B$39</f>
-        <v>54627.776380071737</v>
-      </c>
-      <c r="K17">
-        <f>K11*About!$B$39</f>
-        <v>53914.720856460022</v>
-      </c>
-      <c r="L17">
-        <f>L11*About!$B$39</f>
-        <v>53201.665332848308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18">
-        <f>F12*About!$B$39</f>
-        <v>71958.438212135792</v>
-      </c>
-      <c r="G18">
-        <f>G12*About!$B$39</f>
-        <v>69703.422570084134</v>
-      </c>
-      <c r="H18">
-        <f>H12*About!$B$39</f>
-        <v>67879.473239535786</v>
-      </c>
-      <c r="I18">
-        <f>I12*About!$B$39</f>
-        <v>66323.144244045732</v>
-      </c>
-      <c r="J18">
-        <f>J12*About!$B$39</f>
-        <v>64899.727361269193</v>
-      </c>
-      <c r="K18">
-        <f>K12*About!$B$39</f>
-        <v>63609.222591206184</v>
-      </c>
-      <c r="L18">
-        <f>L12*About!$B$39</f>
-        <v>62319.6158759588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19">
-        <f>F13*About!$B$39</f>
-        <v>104330.62015121823</v>
-      </c>
-      <c r="G19">
-        <f>G13*About!$B$39</f>
-        <v>101112.88974680919</v>
-      </c>
-      <c r="H19">
-        <f>H13*About!$B$39</f>
-        <v>98518.409384448692</v>
-      </c>
-      <c r="I19">
-        <f>I13*About!$B$39</f>
-        <v>96319.073140966211</v>
-      </c>
-      <c r="J19">
-        <f>J13*About!$B$39</f>
-        <v>94318.207011738385</v>
-      </c>
-      <c r="K19">
-        <f>K13*About!$B$39</f>
-        <v>92514.014887133933</v>
-      </c>
-      <c r="L19">
-        <f>L13*About!$B$39</f>
-        <v>90710.720817345107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21">
-        <f>SUMPRODUCT('Freight LDVs'!F17:F19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>67015.820068708723</v>
-      </c>
-      <c r="G21">
-        <f>SUMPRODUCT('Freight LDVs'!G17:G19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>65390.891021686853</v>
-      </c>
-      <c r="H21">
-        <f>SUMPRODUCT('Freight LDVs'!H17:H19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>64067.932818421083</v>
-      </c>
-      <c r="I21">
-        <f>SUMPRODUCT('Freight LDVs'!I17:I19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>62922.20920506223</v>
-      </c>
-      <c r="J21">
-        <f>SUMPRODUCT('Freight LDVs'!J17:J19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>61864.745857600108</v>
-      </c>
-      <c r="K21">
-        <f>SUMPRODUCT('Freight LDVs'!K17:K19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>60895.910916680761</v>
-      </c>
-      <c r="L21">
-        <f>SUMPRODUCT('Freight LDVs'!L17:L19,'[10]Table 44'!$B$42:$B$44)</f>
-        <v>59927.367919640412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>140</v>
-      </c>
-      <c r="B24">
-        <v>74481.20175540229</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="4">
-        <f>1-L21/B24</f>
-        <v>0.19540277939602735</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>142</v>
-      </c>
-      <c r="B26">
-        <v>60169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>143</v>
-      </c>
-      <c r="B27" s="4">
-        <f>1-B26/B24</f>
-        <v>0.19215857717231577</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16473,37 +16608,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="42" t="s">
-        <v>102</v>
+      <c r="B1" s="45" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="41">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="B2" s="44">
+        <f>B5*cpi_2018to2012</f>
+        <v>65177.846652390654</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="40" t="e">
-        <f>#REF!*#REF!+#REF!*#REF!+#REF!*#REF!</f>
-        <v>#REF!</v>
+        <v>111</v>
+      </c>
+      <c r="B5" s="43">
+        <f>B19*B11+C19*B12+D19*B13</f>
+        <v>71310.554324278608</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -16512,119 +16648,402 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37" t="s">
-        <v>135</v>
+        <v>109</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>B23</f>
+        <v>Vehicle cost not including battery</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>'EV freight truck batteries'!$D$19</f>
+        <v>Battery cost (based on 2019 battery pack price)</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>'Heavy freight'!A15</f>
+        <f>A24</f>
+        <v>2-3</v>
+      </c>
+      <c r="B11" s="43">
+        <f>D11+C11</f>
+        <v>65732</v>
+      </c>
+      <c r="C11" s="42">
+        <f>B24</f>
+        <v>55337</v>
+      </c>
+      <c r="D11" s="41">
+        <f>'EV freight truck batteries'!D20</f>
+        <v>10395</v>
+      </c>
+      <c r="E11" s="4">
+        <f>D11/(D11+C11)</f>
+        <v>0.15814215298484757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="str">
+        <f>A25</f>
+        <v>4-5</v>
+      </c>
+      <c r="B12" s="43">
+        <f>D12+C12</f>
+        <v>82459</v>
+      </c>
+      <c r="C12" s="42">
+        <f>B25</f>
+        <v>56664</v>
+      </c>
+      <c r="D12" s="41">
+        <f>'EV freight truck batteries'!D21</f>
+        <v>25795</v>
+      </c>
+      <c r="E12" s="4">
+        <f>D12/(D12+C12)</f>
+        <v>0.31282212978571167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="str">
+        <f>A26</f>
         <v>6-7</v>
       </c>
-      <c r="B11" s="34">
-        <f>C11-D11</f>
+      <c r="B13" s="43">
+        <f>D13+C13</f>
+        <v>119914</v>
+      </c>
+      <c r="C13" s="42">
+        <f>B26</f>
         <v>81414</v>
       </c>
-      <c r="C11" s="34">
-        <f>'Heavy freight'!B15</f>
+      <c r="D13" s="41">
+        <f>'EV freight truck batteries'!D22</f>
+        <v>38500</v>
+      </c>
+      <c r="E13" s="4">
+        <f>D13/(D13+C13)</f>
+        <v>0.32106342879063327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="str">
+        <f>'CARB ACT ISOR'!G27</f>
+        <v>LDV Freight</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="str">
+        <f>'CARB ACT ISOR'!G28</f>
+        <v>Class 2b-3</v>
+      </c>
+      <c r="C18" t="str">
+        <f>'CARB ACT ISOR'!H28</f>
+        <v>Class 4-5</v>
+      </c>
+      <c r="D18" t="str">
+        <f>'CARB ACT ISOR'!I28</f>
+        <v>Class 6-7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="str">
+        <f>'CARB ACT ISOR'!F29</f>
+        <v>Sales Share (2024-2030)</v>
+      </c>
+      <c r="B19" s="40">
+        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32)*1000/E19</f>
+        <v>0.84903672433063349</v>
+      </c>
+      <c r="C19" s="40">
+        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!H46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
+        <v>6.9441673422480865E-2</v>
+      </c>
+      <c r="D19" s="40">
+        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!I46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
+        <v>8.1521602246885733E-2</v>
+      </c>
+      <c r="E19" s="39">
+        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32,'[7]Table 49'!U26:U32)*1000</f>
+        <v>10317224.670000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="38"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+    </row>
+    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="str">
+        <f>'EV freight LDVs'!A33</f>
+        <v>2-3</v>
+      </c>
+      <c r="B24" s="34">
+        <f>C24-D24</f>
+        <v>55337</v>
+      </c>
+      <c r="C24" s="34">
+        <f>'EV freight LDVs'!B33</f>
+        <v>67068.5</v>
+      </c>
+      <c r="D24" s="34">
+        <f>'EV freight truck batteries'!C20</f>
+        <v>11731.5</v>
+      </c>
+      <c r="E24" s="4">
+        <f>D24/C24</f>
+        <v>0.17491818066603548</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="str">
+        <f>'EV freight LDVs'!A34</f>
+        <v>4-5</v>
+      </c>
+      <c r="B25" s="34">
+        <f>C25-D25</f>
+        <v>56664</v>
+      </c>
+      <c r="C25" s="34">
+        <f>'EV freight LDVs'!B34</f>
+        <v>85775.5</v>
+      </c>
+      <c r="D25" s="34">
+        <f>'EV freight truck batteries'!C21</f>
+        <v>29111.500000000004</v>
+      </c>
+      <c r="E25" s="4">
+        <f>D25/C25</f>
+        <v>0.33939178436733103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="str">
+        <f>'EV freight LDVs'!A35</f>
+        <v>6-7</v>
+      </c>
+      <c r="B26" s="34">
+        <f>C26-D26</f>
+        <v>81414</v>
+      </c>
+      <c r="C26" s="34">
+        <f>'EV freight LDVs'!B35</f>
         <v>124864</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D26" s="34">
         <f>'EV freight truck batteries'!C22</f>
         <v>43450</v>
       </c>
-      <c r="E11" s="4">
-        <f>D11/C11</f>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="E26" s="4">
+        <f>D26/C26</f>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="34">
+        <f>D48</f>
+        <v>67068.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="35" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="34">
-        <f>D25</f>
+      <c r="B34" s="34">
+        <f>D49</f>
+        <v>85775.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="34">
+        <f>D50</f>
         <v>124864</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39">
+        <f>'EV freight truck batteries'!B28</f>
+        <v>55</v>
+      </c>
+      <c r="C39">
+        <f>'EV freight truck batteries'!C28</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <f>'EV freight truck batteries'!B29</f>
+        <v>135</v>
+      </c>
+      <c r="C40">
+        <f>'EV freight truck batteries'!C29</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41">
         <f>'EV freight truck batteries'!B30</f>
         <v>200</v>
       </c>
-      <c r="C18">
+      <c r="C41">
         <f>'EV freight truck batteries'!C30</f>
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
         <f>'EV freight truck batteries'!$E$38</f>
         <v>173.8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B48" s="34">
+        <f>'EV freight truck batteries'!B38</f>
+        <v>64896</v>
+      </c>
+      <c r="C48" s="34">
+        <f>'EV freight truck batteries'!C38</f>
+        <v>69241</v>
+      </c>
+      <c r="D48">
+        <f>(C48+B48)/2</f>
+        <v>67068.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B49" s="34">
+        <f>'EV freight truck batteries'!B39</f>
+        <v>80127</v>
+      </c>
+      <c r="C49" s="34">
+        <f>'EV freight truck batteries'!C39</f>
+        <v>91424</v>
+      </c>
+      <c r="D49">
+        <f>(C49+B49)/2</f>
+        <v>85775.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="34">
+      <c r="B50" s="34">
         <f>'EV freight truck batteries'!B40</f>
         <v>116174</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C50" s="34">
         <f>'EV freight truck batteries'!C40</f>
         <v>133554</v>
       </c>
-      <c r="D25" s="40">
-        <f>(C25+B25)/2</f>
+      <c r="D50">
+        <f>(C50+B50)/2</f>
         <v>124864</v>
       </c>
     </row>
@@ -16634,12 +17053,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995C4628-A388-4B62-B80E-759D21A3AB7D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16651,37 +17070,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="44">
+      <c r="A6" s="47">
         <v>43004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -16695,10 +17114,10 @@
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -16706,27 +17125,27 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="44">
+      <c r="A14" s="47">
         <v>43802</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
-        <v>114</v>
+      <c r="A15" s="46" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -16737,68 +17156,68 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
-        <f t="shared" ref="B19:B24" si="0">E27</f>
+        <f>E27</f>
         <v>Average</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>E28</f>
         <v>67.5</v>
       </c>
       <c r="C20" s="34">
         <f>B20*$E$38</f>
         <v>11731.5</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="41">
         <f>B20*$A$10</f>
         <v>10395</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>E29</f>
         <v>167.5</v>
       </c>
       <c r="C21" s="34">
         <f>B21*$E$38</f>
         <v>29111.500000000004</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="41">
         <f>B21*$A$10</f>
         <v>25795</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>E30</f>
         <v>250</v>
       </c>
       <c r="C22" s="34">
         <f>B22*$E$38</f>
         <v>43450</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="41">
         <f>B22*$A$10</f>
         <v>38500</v>
       </c>
@@ -16808,31 +17227,31 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>E31</f>
         <v>300</v>
       </c>
       <c r="C23" s="34">
         <f>B23*$E$38</f>
         <v>52140</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="41">
         <f>B23*$A$10</f>
         <v>46200</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f>E32</f>
         <v>400</v>
       </c>
       <c r="C24" s="34">
         <f>B24*$E$38</f>
         <v>69520</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="41">
         <f>B24*$A$10</f>
         <v>61600</v>
       </c>
@@ -16842,26 +17261,26 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>55</v>
@@ -16880,7 +17299,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29">
         <v>135</v>
@@ -16899,7 +17318,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -16937,7 +17356,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B32">
         <v>400</v>
@@ -16949,7 +17368,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -16960,17 +17379,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <f>64896</f>
@@ -16990,7 +17409,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B39">
         <v>80127</v>
@@ -17009,7 +17428,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>116174</v>
@@ -17047,7 +17466,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B43">
         <v>201351</v>
@@ -17055,12 +17474,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -17069,6 +17488,1143 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AB7CB3-320B-4564-A868-DC7FC0585BBF}">
+  <dimension ref="A1:K91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" customWidth="1"/>
+    <col min="7" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="76" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="74" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="64"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="73"/>
+      <c r="B17" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="52">
+        <v>524</v>
+      </c>
+      <c r="C18" s="52">
+        <v>963</v>
+      </c>
+      <c r="D18" s="52">
+        <v>1364</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" s="52">
+        <v>1110</v>
+      </c>
+      <c r="C19" s="52">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="52">
+        <v>2662</v>
+      </c>
+      <c r="F19" s="53">
+        <v>2024</v>
+      </c>
+      <c r="G19" s="60">
+        <v>53761</v>
+      </c>
+      <c r="H19" s="60">
+        <v>6436</v>
+      </c>
+      <c r="I19" s="60">
+        <v>7556</v>
+      </c>
+      <c r="J19" s="60">
+        <v>1119</v>
+      </c>
+      <c r="K19" s="71">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="51" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="52">
+        <f>6484*cpi_2018to2012</f>
+        <v>5926.3760000000002</v>
+      </c>
+      <c r="C20" s="52">
+        <f>10101*cpi_2018to2012</f>
+        <v>9232.3140000000003</v>
+      </c>
+      <c r="D20" s="52">
+        <f>12442*cpi_2018to2012</f>
+        <v>11371.988000000001</v>
+      </c>
+      <c r="F20" s="53">
+        <v>2025</v>
+      </c>
+      <c r="G20" s="60">
+        <v>54217</v>
+      </c>
+      <c r="H20" s="60">
+        <v>6531</v>
+      </c>
+      <c r="I20" s="60">
+        <v>7667</v>
+      </c>
+      <c r="J20" s="60">
+        <v>1137</v>
+      </c>
+      <c r="K20" s="71">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="61">
+        <f>(B18*$G$46+B19*SUM($H$46:$J$46))*cpi_2018to2012</f>
+        <v>658.83351490019675</v>
+      </c>
+      <c r="C21" s="61">
+        <f>(C18*$G$46+C19*SUM($H$46:$J$46))*cpi_2018to2012</f>
+        <v>1205.2868946745875</v>
+      </c>
+      <c r="D21" s="61">
+        <f>(D18*$G$46+D19*SUM($H$46:$J$46))*cpi_2018to2012</f>
+        <v>1645.1720654273984</v>
+      </c>
+      <c r="F21" s="53">
+        <v>2026</v>
+      </c>
+      <c r="G21" s="60">
+        <v>54753</v>
+      </c>
+      <c r="H21" s="60">
+        <v>6649</v>
+      </c>
+      <c r="I21" s="60">
+        <v>7806</v>
+      </c>
+      <c r="J21" s="60">
+        <v>1177</v>
+      </c>
+      <c r="K21" s="71">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="62"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="F22" s="53">
+        <v>2027</v>
+      </c>
+      <c r="G22" s="60">
+        <v>55152</v>
+      </c>
+      <c r="H22" s="60">
+        <v>6786</v>
+      </c>
+      <c r="I22" s="60">
+        <v>7966</v>
+      </c>
+      <c r="J22" s="60">
+        <v>1194</v>
+      </c>
+      <c r="K22" s="71">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="F23" s="53">
+        <v>2028</v>
+      </c>
+      <c r="G23" s="60">
+        <v>55765</v>
+      </c>
+      <c r="H23" s="60">
+        <v>6904</v>
+      </c>
+      <c r="I23" s="60">
+        <v>8105</v>
+      </c>
+      <c r="J23" s="60">
+        <v>1216</v>
+      </c>
+      <c r="K23" s="71">
+        <v>5075</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="F24" s="53">
+        <v>2029</v>
+      </c>
+      <c r="G24" s="60">
+        <v>56371</v>
+      </c>
+      <c r="H24" s="60">
+        <v>7024</v>
+      </c>
+      <c r="I24" s="60">
+        <v>8246</v>
+      </c>
+      <c r="J24" s="60">
+        <v>1239</v>
+      </c>
+      <c r="K24" s="71">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F25" s="53">
+        <v>2030</v>
+      </c>
+      <c r="G25" s="60">
+        <v>56968</v>
+      </c>
+      <c r="H25" s="60">
+        <v>7147</v>
+      </c>
+      <c r="I25" s="60">
+        <v>8390</v>
+      </c>
+      <c r="J25" s="60">
+        <v>1264</v>
+      </c>
+      <c r="K25" s="71">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F26" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G26" s="60">
+        <f>SUM(G19:G25)</f>
+        <v>386987</v>
+      </c>
+      <c r="H26" s="60">
+        <f>SUM(H19:H25)</f>
+        <v>47477</v>
+      </c>
+      <c r="I26" s="60">
+        <f>SUM(I19:I25)</f>
+        <v>55736</v>
+      </c>
+      <c r="J26" s="60">
+        <f>SUM(J19:J25)</f>
+        <v>8346</v>
+      </c>
+      <c r="K26" s="60">
+        <f>SUM(K19:K25)</f>
+        <v>34865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F27" s="59"/>
+      <c r="G27" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="70" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I28" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F29" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="54">
+        <f>G26/SUM($G26:$J26)</f>
+        <v>0.7762312805638798</v>
+      </c>
+      <c r="H29" s="54">
+        <f>H26/SUM($G26:$J26)</f>
+        <v>9.5230931548944325E-2</v>
+      </c>
+      <c r="I29" s="54">
+        <f>I26/SUM($G26:$J26)</f>
+        <v>0.11179710598420206</v>
+      </c>
+      <c r="J29" s="54">
+        <f>J26/SUM($G26:$J26)</f>
+        <v>1.6740681902973849E-2</v>
+      </c>
+      <c r="K29" s="68">
+        <f>K19/K19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F30" s="53"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="68"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C31" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F31" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C32" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="52">
+        <v>45000</v>
+      </c>
+      <c r="F32" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C33" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="52">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C34" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="52">
+        <v>55000</v>
+      </c>
+      <c r="F34" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C35" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="52">
+        <v>85000</v>
+      </c>
+      <c r="F35" t="str">
+        <f>F18</f>
+        <v>Model Year</v>
+      </c>
+      <c r="G35" t="str">
+        <f>G18</f>
+        <v>Class 2b-3</v>
+      </c>
+      <c r="H35" t="str">
+        <f>H18</f>
+        <v>Class 4-5</v>
+      </c>
+      <c r="I35" t="str">
+        <f>I18</f>
+        <v>Class 6-7</v>
+      </c>
+      <c r="J35" t="str">
+        <f>J18</f>
+        <v>Class 8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C36" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="52">
+        <v>120000</v>
+      </c>
+      <c r="F36">
+        <f>F19</f>
+        <v>2024</v>
+      </c>
+      <c r="G36" s="48">
+        <f>G19*$B$76</f>
+        <v>30643.769999999997</v>
+      </c>
+      <c r="H36" s="48">
+        <f>H19</f>
+        <v>6436</v>
+      </c>
+      <c r="I36" s="48">
+        <f>I19</f>
+        <v>7556</v>
+      </c>
+      <c r="J36" s="48">
+        <f>J19</f>
+        <v>1119</v>
+      </c>
+      <c r="K36" s="48"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C37" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="52">
+        <v>130000</v>
+      </c>
+      <c r="E37" s="41">
+        <f>D37*cpi_2018to2012</f>
+        <v>118820</v>
+      </c>
+      <c r="F37">
+        <f>F20</f>
+        <v>2025</v>
+      </c>
+      <c r="G37" s="48">
+        <f>G20*$B$76</f>
+        <v>30903.69</v>
+      </c>
+      <c r="H37" s="48">
+        <f>H20</f>
+        <v>6531</v>
+      </c>
+      <c r="I37" s="48">
+        <f>I20</f>
+        <v>7667</v>
+      </c>
+      <c r="J37" s="48">
+        <f>J20</f>
+        <v>1137</v>
+      </c>
+      <c r="K37" s="48"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F38">
+        <f>F21</f>
+        <v>2026</v>
+      </c>
+      <c r="G38" s="48">
+        <f>G21*$B$76</f>
+        <v>31209.21</v>
+      </c>
+      <c r="H38" s="48">
+        <f>H21</f>
+        <v>6649</v>
+      </c>
+      <c r="I38" s="48">
+        <f>I21</f>
+        <v>7806</v>
+      </c>
+      <c r="J38" s="48">
+        <f>J21</f>
+        <v>1177</v>
+      </c>
+      <c r="K38" s="48"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39">
+        <f>F22</f>
+        <v>2027</v>
+      </c>
+      <c r="G39" s="48">
+        <f>G22*$B$76</f>
+        <v>31436.639999999996</v>
+      </c>
+      <c r="H39" s="48">
+        <f>H22</f>
+        <v>6786</v>
+      </c>
+      <c r="I39" s="48">
+        <f>I22</f>
+        <v>7966</v>
+      </c>
+      <c r="J39" s="48">
+        <f>J22</f>
+        <v>1194</v>
+      </c>
+      <c r="K39" s="48"/>
+    </row>
+    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
+      <c r="C40" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="D40" s="61">
+        <f>D33*G46+D34*H46+D35*I46</f>
+        <v>55331.59668441402</v>
+      </c>
+      <c r="E40" s="41">
+        <f>D40*cpi_2018to2012</f>
+        <v>50573.07936955442</v>
+      </c>
+      <c r="F40">
+        <f>F23</f>
+        <v>2028</v>
+      </c>
+      <c r="G40" s="48">
+        <f>G23*$B$76</f>
+        <v>31786.049999999996</v>
+      </c>
+      <c r="H40" s="48">
+        <f>H23</f>
+        <v>6904</v>
+      </c>
+      <c r="I40" s="48">
+        <f>I23</f>
+        <v>8105</v>
+      </c>
+      <c r="J40" s="48">
+        <f>J23</f>
+        <v>1216</v>
+      </c>
+      <c r="K40" s="48"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="61">
+        <f>(D32/D33)*D40</f>
+        <v>49798.437015972617</v>
+      </c>
+      <c r="E41" s="41">
+        <f>D41*cpi_2018to2012</f>
+        <v>45515.771432598973</v>
+      </c>
+      <c r="F41">
+        <f>F24</f>
+        <v>2029</v>
+      </c>
+      <c r="G41" s="48">
+        <f>G24*$B$76</f>
+        <v>32131.469999999998</v>
+      </c>
+      <c r="H41" s="48">
+        <f>H24</f>
+        <v>7024</v>
+      </c>
+      <c r="I41" s="48">
+        <f>I24</f>
+        <v>8246</v>
+      </c>
+      <c r="J41" s="48">
+        <f>J24</f>
+        <v>1239</v>
+      </c>
+      <c r="K41" s="48"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F42">
+        <f>F25</f>
+        <v>2030</v>
+      </c>
+      <c r="G42" s="48">
+        <f>G25*$B$76</f>
+        <v>32471.759999999998</v>
+      </c>
+      <c r="H42" s="48">
+        <f>H25</f>
+        <v>7147</v>
+      </c>
+      <c r="I42" s="48">
+        <f>I25</f>
+        <v>8390</v>
+      </c>
+      <c r="J42" s="48">
+        <f>J25</f>
+        <v>1264</v>
+      </c>
+      <c r="K42" s="48"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F43" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" s="60">
+        <f>SUM(G36:G42)</f>
+        <v>220582.59</v>
+      </c>
+      <c r="H43" s="60">
+        <f>SUM(H36:H42)</f>
+        <v>47477</v>
+      </c>
+      <c r="I43" s="60">
+        <f>SUM(I36:I42)</f>
+        <v>55736</v>
+      </c>
+      <c r="J43" s="60">
+        <f>SUM(J36:J42)</f>
+        <v>8346</v>
+      </c>
+      <c r="K43" s="48">
+        <f>G43+H43+I43+J43</f>
+        <v>332141.58999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="59"/>
+      <c r="G44" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="48"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F45" s="56"/>
+      <c r="G45" s="53" t="s">
+        <v>163</v>
+      </c>
+      <c r="H45" s="53" t="s">
+        <v>162</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="F46" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G46" s="54">
+        <f>G43/SUM($G43:$J43)</f>
+        <v>0.66412215946819553</v>
+      </c>
+      <c r="H46" s="54">
+        <f>H43/SUM($G43:$J43)</f>
+        <v>0.1429420507079526</v>
+      </c>
+      <c r="I46" s="54">
+        <f>I43/SUM($G43:$J43)</f>
+        <v>0.16780795202431592</v>
+      </c>
+      <c r="J46" s="54">
+        <f>J43/SUM($G43:$J43)</f>
+        <v>2.5127837799536038E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G62" s="53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H62" s="53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="52">
+        <v>64896</v>
+      </c>
+      <c r="C63" s="52">
+        <v>63635</v>
+      </c>
+      <c r="D63" s="52">
+        <v>62599</v>
+      </c>
+      <c r="E63" s="52">
+        <v>61684</v>
+      </c>
+      <c r="F63" s="52">
+        <v>60829</v>
+      </c>
+      <c r="G63" s="52">
+        <v>60035</v>
+      </c>
+      <c r="H63" s="52">
+        <v>59241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="52">
+        <v>69241</v>
+      </c>
+      <c r="C64" s="52">
+        <v>67568</v>
+      </c>
+      <c r="D64" s="52">
+        <v>66201</v>
+      </c>
+      <c r="E64" s="52">
+        <v>65011</v>
+      </c>
+      <c r="F64" s="52">
+        <v>63909</v>
+      </c>
+      <c r="G64" s="52">
+        <v>62895</v>
+      </c>
+      <c r="H64" s="52">
+        <v>61881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="52">
+        <v>80127</v>
+      </c>
+      <c r="C65" s="52">
+        <v>77616</v>
+      </c>
+      <c r="D65" s="52">
+        <v>75585</v>
+      </c>
+      <c r="E65" s="52">
+        <v>73852</v>
+      </c>
+      <c r="F65" s="52">
+        <v>72267</v>
+      </c>
+      <c r="G65" s="52">
+        <v>70830</v>
+      </c>
+      <c r="H65" s="52">
+        <v>69394</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="52">
+        <v>91424</v>
+      </c>
+      <c r="C66" s="52">
+        <v>87841</v>
+      </c>
+      <c r="D66" s="52">
+        <v>84952</v>
+      </c>
+      <c r="E66" s="52">
+        <v>82503</v>
+      </c>
+      <c r="F66" s="52">
+        <v>80275</v>
+      </c>
+      <c r="G66" s="52">
+        <v>78266</v>
+      </c>
+      <c r="H66" s="52">
+        <v>76258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="52">
+        <v>116174</v>
+      </c>
+      <c r="C67" s="52">
+        <v>112591</v>
+      </c>
+      <c r="D67" s="52">
+        <v>109702</v>
+      </c>
+      <c r="E67" s="52">
+        <v>107253</v>
+      </c>
+      <c r="F67" s="52">
+        <v>105025</v>
+      </c>
+      <c r="G67" s="52">
+        <v>103016</v>
+      </c>
+      <c r="H67" s="52">
+        <v>101008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B68" s="52">
+        <v>133554</v>
+      </c>
+      <c r="C68" s="52">
+        <v>128321</v>
+      </c>
+      <c r="D68" s="52">
+        <v>124112</v>
+      </c>
+      <c r="E68" s="52">
+        <v>120563</v>
+      </c>
+      <c r="F68" s="52">
+        <v>117345</v>
+      </c>
+      <c r="G68" s="52">
+        <v>114456</v>
+      </c>
+      <c r="H68" s="52">
+        <v>111568</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B69" s="52">
+        <v>154799</v>
+      </c>
+      <c r="C69" s="52">
+        <v>150486</v>
+      </c>
+      <c r="D69" s="52">
+        <v>147007</v>
+      </c>
+      <c r="E69" s="52">
+        <v>144057</v>
+      </c>
+      <c r="F69" s="52">
+        <v>141371</v>
+      </c>
+      <c r="G69" s="52">
+        <v>138949</v>
+      </c>
+      <c r="H69" s="52">
+        <v>136527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="52">
+        <v>175655</v>
+      </c>
+      <c r="C70" s="52">
+        <v>169362</v>
+      </c>
+      <c r="D70" s="52">
+        <v>164299</v>
+      </c>
+      <c r="E70" s="52">
+        <v>160029</v>
+      </c>
+      <c r="F70" s="52">
+        <v>156155</v>
+      </c>
+      <c r="G70" s="52">
+        <v>152677</v>
+      </c>
+      <c r="H70" s="52">
+        <v>149199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="52">
+        <v>201351</v>
+      </c>
+      <c r="C71" s="52">
+        <v>194134</v>
+      </c>
+      <c r="D71" s="52">
+        <v>188312</v>
+      </c>
+      <c r="E71" s="52">
+        <v>183371</v>
+      </c>
+      <c r="F71" s="52">
+        <v>178870</v>
+      </c>
+      <c r="G71" s="52">
+        <v>174809</v>
+      </c>
+      <c r="H71" s="52">
+        <v>170748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="52">
+        <v>216931</v>
+      </c>
+      <c r="C72" s="52">
+        <v>212353</v>
+      </c>
+      <c r="D72" s="52">
+        <v>207885</v>
+      </c>
+      <c r="E72" s="52">
+        <v>203439</v>
+      </c>
+      <c r="F72" s="52">
+        <v>199004</v>
+      </c>
+      <c r="G72" s="52">
+        <v>194579</v>
+      </c>
+      <c r="H72" s="52">
+        <v>190155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74">
+        <f>B72/B71</f>
+        <v>1.077377316228874</v>
+      </c>
+      <c r="C74">
+        <f>C72/C71</f>
+        <v>1.0938475486004513</v>
+      </c>
+      <c r="D74">
+        <f>D72/D71</f>
+        <v>1.1039392072730363</v>
+      </c>
+      <c r="E74">
+        <f>E72/E71</f>
+        <v>1.109439333373325</v>
+      </c>
+      <c r="F74">
+        <f>F72/F71</f>
+        <v>1.1125621960082741</v>
+      </c>
+      <c r="G74">
+        <f>G72/G71</f>
+        <v>1.1130948635367743</v>
+      </c>
+      <c r="H74">
+        <f>H72/H71</f>
+        <v>1.113658725138801</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="50">
+        <f>0.57</f>
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="49">
+        <v>59513.619728112782</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>136</v>
+      </c>
+      <c r="B90" s="48">
+        <f>$D$40</f>
+        <v>55331.59668441402</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="41">
+        <f>B89/B90</f>
+        <v>1.0755811018350165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:J44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{6CA68799-D590-4E9C-A58B-FCBBA33FC526}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -17320,7 +18876,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'Heavy freight'!E11</f>
+        <f>'EV freight LDVs'!E26</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C3" s="5">
@@ -17993,7 +19549,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="AB26" sqref="AB26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18108,131 +19664,132 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <v>0.27500000000000002</v>
+        <f>'EV freight LDVs'!E24</f>
+        <v>0.17491818066603548</v>
       </c>
       <c r="C2" s="5">
         <f>B2</f>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:AG2" si="0">C2</f>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="Q2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="S2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="T2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="U2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="V2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="X2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="Y2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="Z2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AB2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AC2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AD2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="0"/>
-        <v>0.27500000000000002</v>
+        <v>0.17491818066603548</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -18240,7 +19797,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'Heavy freight'!E11</f>
+        <f>'EV freight LDVs'!E26</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C3" s="5">

--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE12CCF9-60A5-4FBA-A67E-52491542EF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Data" sheetId="5" r:id="rId2"/>
     <sheet name="Psgr LDV Calculations" sheetId="4" r:id="rId3"/>
-    <sheet name="EV freight LDVs" sheetId="7" r:id="rId4"/>
-    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId5"/>
-    <sheet name="CARB ACT ISOR" sheetId="9" r:id="rId6"/>
+    <sheet name="Freight LDVs" sheetId="13" r:id="rId4"/>
+    <sheet name="Heavy freight" sheetId="7" r:id="rId5"/>
+    <sheet name="EV freight truck batteries" sheetId="8" r:id="rId6"/>
     <sheet name="BBSoEVP-passenger" sheetId="2" r:id="rId7"/>
     <sheet name="BBSoEVP-freight" sheetId="6" r:id="rId8"/>
   </sheets>
@@ -32,42 +32,43 @@
     <externalReference r:id="rId15"/>
     <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
+    <externalReference r:id="rId18"/>
   </externalReferences>
   <definedNames>
     <definedName name="_2014_eGRID_Subregion_File">#REF!</definedName>
     <definedName name="AEO">[1]Safety!$L$2</definedName>
-    <definedName name="asdf">[8]About!$A$113</definedName>
-    <definedName name="compa">[2]PROVP!#REF!</definedName>
-    <definedName name="Comparaison">[2]PROVP!$A:$A</definedName>
-    <definedName name="cpi_2010to2012">[7]About!#REF!</definedName>
-    <definedName name="cpi_2014to2012">[7]About!#REF!</definedName>
-    <definedName name="cpi_2017to2012">[7]About!$A$121</definedName>
-    <definedName name="cpi_2018to2012">[7]About!$A$122</definedName>
-    <definedName name="cpi_2019to2012">[7]About!$A$123</definedName>
-    <definedName name="cpi_2020to2012">[7]About!$A$124</definedName>
+    <definedName name="asdf">[2]About!$A$113</definedName>
+    <definedName name="compa">[3]PROVP!#REF!</definedName>
+    <definedName name="Comparaison">[3]PROVP!$A:$A</definedName>
+    <definedName name="cpi_2010to2012">[4]About!#REF!</definedName>
+    <definedName name="cpi_2014to2012">[4]About!#REF!</definedName>
+    <definedName name="cpi_2017to2012">[4]About!$A$121</definedName>
+    <definedName name="cpi_2018to2012">[4]About!$A$122</definedName>
+    <definedName name="cpi_2019to2012">[4]About!$A$123</definedName>
+    <definedName name="cpi_2020to2012">[4]About!$A$124</definedName>
     <definedName name="cut_allowed_LT">[1]Safety!$L$6</definedName>
     <definedName name="cut_allowed_PC">[1]Safety!$L$5</definedName>
     <definedName name="cut_safety_LT">[1]Safety!$AK$8</definedName>
     <definedName name="cut_safety_PC">[1]Safety!$AK$7</definedName>
-    <definedName name="gC_kWh">[3]INPUTS!$B$32</definedName>
-    <definedName name="gCO2_gC">[3]INPUTS!$B$34</definedName>
-    <definedName name="H2_kg_to_MMBtu">[9]Constants!$D$7</definedName>
-    <definedName name="Impres_titres_MI">[2]PROVP!$A:$A</definedName>
-    <definedName name="kWh_to_Btu">[9]Constants!$D$4</definedName>
-    <definedName name="mode">[4]Config!$AD$7:$AD$19</definedName>
-    <definedName name="P91_">[2]PROVP!#REF!</definedName>
-    <definedName name="P92_">[2]PROVP!#REF!</definedName>
-    <definedName name="Renewable_and_Non_Renewable_Generation">[5]Contents!#REF!</definedName>
-    <definedName name="Scenario">[6]Targets_byFleet!$A$1</definedName>
+    <definedName name="gC_kWh">[5]INPUTS!$B$32</definedName>
+    <definedName name="gCO2_gC">[5]INPUTS!$B$34</definedName>
+    <definedName name="H2_kg_to_MMBtu">[6]Constants!$D$7</definedName>
+    <definedName name="Impres_titres_MI">[3]PROVP!$A:$A</definedName>
+    <definedName name="kWh_to_Btu">[6]Constants!$D$4</definedName>
+    <definedName name="mode">[7]Config!$AD$7:$AD$19</definedName>
+    <definedName name="P91_">[3]PROVP!#REF!</definedName>
+    <definedName name="P92_">[3]PROVP!#REF!</definedName>
+    <definedName name="Renewable_and_Non_Renewable_Generation">[8]Contents!#REF!</definedName>
+    <definedName name="Scenario">[9]Targets_byFleet!$A$1</definedName>
     <definedName name="TableName">"Dummy"</definedName>
     <definedName name="tblVspecsData">#REF!</definedName>
     <definedName name="tblVspecsHeader">#REF!</definedName>
-    <definedName name="Transmission_loss">[3]kWhpMi!$G$1</definedName>
-    <definedName name="UF_REEV20">[3]kWhpMi!$M$5</definedName>
-    <definedName name="UF_REEV40">[3]kWhpMi!$M$4</definedName>
+    <definedName name="Transmission_loss">[5]kWhpMi!$G$1</definedName>
+    <definedName name="UF_REEV20">[5]kWhpMi!$M$5</definedName>
+    <definedName name="UF_REEV40">[5]kWhpMi!$M$4</definedName>
     <definedName name="WRcap_2021">[1]Safety!$L$3</definedName>
     <definedName name="WRcap_2025">[1]Safety!$L$4</definedName>
-    <definedName name="Zone_impres_MI">[2]PROVP!$B$5:$B$90</definedName>
+    <definedName name="Zone_impres_MI">[3]PROVP!$B$5:$B$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
   <si>
     <t>Sources:</t>
   </si>
@@ -333,9 +334,6 @@
     <t>In the US, we use this value as a calibrating parameter and choose values that align our EV cost declines</t>
   </si>
   <si>
-    <t>for passenger LDVs with the cited NAP study.</t>
-  </si>
-  <si>
     <t>EIA</t>
   </si>
   <si>
@@ -345,13 +343,7 @@
     <t>Annual Energy Outlook 2021</t>
   </si>
   <si>
-    <t>Table 38</t>
-  </si>
-  <si>
     <t>Passenger LDV EV Cost</t>
-  </si>
-  <si>
-    <t>Passenger LDV Sales Share by Vehicle Class</t>
   </si>
   <si>
     <t>6-7</t>
@@ -381,37 +373,13 @@
     <t>Battery size</t>
   </si>
   <si>
-    <t>Average vehicle cost 2024</t>
-  </si>
-  <si>
     <t>2024 Vehicle cost</t>
-  </si>
-  <si>
-    <t>Battery share</t>
   </si>
   <si>
     <t>Battery cost (as in CARB, $173.8 in 2024)</t>
   </si>
   <si>
-    <t>Vehicle plus battery cost (2024)</t>
-  </si>
-  <si>
-    <t>Vehicle cost not including battery</t>
-  </si>
-  <si>
     <t>Calculations to find vehicle cost not including battery</t>
-  </si>
-  <si>
-    <t>total LDV freight</t>
-  </si>
-  <si>
-    <t>Sales shared for LDV freight - total</t>
-  </si>
-  <si>
-    <t>Share of battery for EPS purposes</t>
-  </si>
-  <si>
-    <t>Vehicle including battery</t>
   </si>
   <si>
     <t>Calculate with BNEF 2019 battery pack cost (capacity weighted average)</t>
@@ -492,84 +460,6 @@
     <t>Use same battery price as LDVs, in line with ICCT's assumption:</t>
   </si>
   <si>
-    <t>Ratio of natural gas to diesel</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>Natural Gas - LDV per AEO and USEPS</t>
-  </si>
-  <si>
-    <t>ISOR states:</t>
-  </si>
-  <si>
-    <t>Diesel fraction within class 2b-3</t>
-  </si>
-  <si>
-    <t>Ratio of Fuel Cell to Electric</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractor - Fuel Cell</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractor - Electric</t>
-  </si>
-  <si>
-    <t>Class 8 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 8 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>Class 6-7 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 6-7 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>Class 4-5 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 4-5 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Electric Long Range</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Electric Normal Range</t>
-  </si>
-  <si>
-    <t>2030 MY</t>
-  </si>
-  <si>
-    <t>2029 MY</t>
-  </si>
-  <si>
-    <t>2028 MY</t>
-  </si>
-  <si>
-    <t>2027 MY</t>
-  </si>
-  <si>
-    <t>2026 MY</t>
-  </si>
-  <si>
-    <t>2025 MY</t>
-  </si>
-  <si>
-    <t>2024 MY</t>
-  </si>
-  <si>
-    <t>Vehicle Group</t>
-  </si>
-  <si>
-    <t>Sales Share - DIESEL ONLY (2024-2030)</t>
-  </si>
-  <si>
-    <t>Class 8</t>
-  </si>
-  <si>
     <t>Class 6-7</t>
   </si>
   <si>
@@ -579,118 +469,7 @@
     <t>Class 2b-3</t>
   </si>
   <si>
-    <t>LDV Freight</t>
-  </si>
-  <si>
-    <t>BEV and FCEV Price Forecasts:</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>Calculated LDV Avg - Gasoline</t>
-  </si>
-  <si>
-    <t>Use ratio of Gasoline/Diesel for Class 2b-3 for calculated gasoline value:</t>
-  </si>
-  <si>
-    <t>Calculated LDV Avg - Diesel</t>
-  </si>
-  <si>
-    <t>2012 $s</t>
-  </si>
-  <si>
-    <t>2018 $s</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractors</t>
-  </si>
-  <si>
-    <t>LDV freight sales - DIESEL ONLY</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Diesel</t>
-  </si>
-  <si>
-    <t>This file uses EIA's definition that includes Class 8 non-tractors in vocational vehicles/LDV freight.</t>
-  </si>
-  <si>
-    <t>Class 2b-3 - Gasoline</t>
-  </si>
-  <si>
-    <t>* E3 categorizes Class 8 non-tractors and Class 7-8 tractors as HDV freight.</t>
-  </si>
-  <si>
-    <t>Vehicle Price</t>
-  </si>
-  <si>
-    <t>Sales Share (2024-2030)</t>
-  </si>
-  <si>
-    <t>Class 7-8 Tractor</t>
-  </si>
-  <si>
-    <t>Gasoline and Diesel Vehicle Starting Prices:</t>
-  </si>
-  <si>
-    <t>HDV Freight</t>
-  </si>
-  <si>
-    <t>Note that E3 groups Class 8 non-tractors with Class 7-8 tractors in HDV freight.</t>
-  </si>
-  <si>
-    <t>*Vocational Vehicles encompass Class 8 non-tractor vehicles according to the EIA.</t>
-  </si>
-  <si>
-    <t>Calculated LDV Average</t>
-  </si>
-  <si>
-    <t>Tractors</t>
-  </si>
-  <si>
-    <t>Vocational Vehicles*</t>
-  </si>
-  <si>
-    <t>Model Year</t>
-  </si>
-  <si>
-    <t>Class 2b-3 Pickup/Van</t>
-  </si>
-  <si>
-    <t>2027-2030 MY</t>
-  </si>
-  <si>
-    <t>2024-2026 MY</t>
-  </si>
-  <si>
-    <t>2021-2023 MY</t>
-  </si>
-  <si>
-    <t>In 2012 $s for rows 20 and 21</t>
-  </si>
-  <si>
-    <t>Sales - diesel and gasoline</t>
-  </si>
-  <si>
-    <t>Added notes/calculation</t>
-  </si>
-  <si>
-    <t>Copied from CARB source</t>
-  </si>
-  <si>
-    <t>Color Key:</t>
-  </si>
-  <si>
     <t>https://ww3.arb.ca.gov/regact/2019/act2019/isor.pdf</t>
-  </si>
-  <si>
-    <t>PUBLIC HEARING TO CONSIDER THE PROPOSED ADVANCED CLEAN TRUCKS REGULATION</t>
-  </si>
-  <si>
-    <t>Source: CARB</t>
-  </si>
-  <si>
-    <t>LDV-freight</t>
   </si>
   <si>
     <t>CARB</t>
@@ -714,7 +493,46 @@
     <t>"MDV &amp; HDV Decarbonization" sheet</t>
   </si>
   <si>
-    <t>For other vehicle types, we use the LDV-freight calculations</t>
+    <t>Percent of vehicle that is battery</t>
+  </si>
+  <si>
+    <t>2019 USD</t>
+  </si>
+  <si>
+    <t>2012 USD</t>
+  </si>
+  <si>
+    <t>Weighted Average</t>
+  </si>
+  <si>
+    <t>2019 to 2012 USD (see cpi.xlsx)</t>
+  </si>
+  <si>
+    <t>Start Year Freight LDV price (see BNVP)</t>
+  </si>
+  <si>
+    <t>% Decline by 2030</t>
+  </si>
+  <si>
+    <t>2030 Freight LDV price from EPS (calibrated)</t>
+  </si>
+  <si>
+    <t>% Decline by 2030 (calibrated)</t>
+  </si>
+  <si>
+    <t>for passenger LDVs with the cited NAP study and for freight LDVs with CARB.</t>
+  </si>
+  <si>
+    <t>For other vehicle types, we use CARB data to calculate a battery share for heavy freight vehicles.</t>
+  </si>
+  <si>
+    <t>All other vehicle types</t>
+  </si>
+  <si>
+    <t>Table 38, Table 44, Table 49</t>
+  </si>
+  <si>
+    <t>Sales Share by Vehicle Class</t>
   </si>
 </sst>
 </file>
@@ -726,7 +544,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,17 +595,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="16">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -866,20 +675,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -905,85 +702,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -997,8 +717,9 @@
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1041,9 +762,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1053,70 +771,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="14" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="14" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
     <cellStyle name="Currency" xfId="7" builtinId="4"/>
     <cellStyle name="Currency 2" xfId="5" xr:uid="{FEE8019A-152E-4283-8314-55D41AB83B33}"/>
@@ -1124,6 +781,7 @@
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0C503966-CFFD-4326-9D3B-E3B164AC8CF2}"/>
+    <cellStyle name="Normal 2 2" xfId="9" xr:uid="{645FBC49-E98E-4F54-99F5-8C4D00B6C436}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="3" xr:uid="{BA852934-A7AE-493A-80C5-3659A52B75F9}"/>
   </cellStyles>
@@ -2247,16 +1905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>551619</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>113738</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>599244</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>151838</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,8 +1937,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4943475" y="323850"/>
-          <a:ext cx="6647619" cy="4495238"/>
+          <a:off x="6819900" y="177800"/>
+          <a:ext cx="6647619" cy="4498413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2291,16 +1949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313284</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>46846</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>392659</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>75421</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2323,8 +1981,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3638550" y="4854575"/>
-          <a:ext cx="8323809" cy="6231746"/>
+          <a:off x="5540375" y="4702175"/>
+          <a:ext cx="8330159" cy="6231746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,6 +1995,55 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159859</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163511</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878F466F-A745-48FC-9BC4-1AFD8EBC4BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="311150"/>
+          <a:ext cx="5611334" cy="1135061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2458,244 +2165,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5056359" cy="1063625"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F769AE-BF9F-4E37-87F8-C727D60B49FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1657350"/>
-          <a:ext cx="5056359" cy="1063625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>80960</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2858789" cy="1708946"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BA4FE6-91A3-40A6-A3D2-C455164B9096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11906" y="5237160"/>
-          <a:ext cx="2858789" cy="1708946"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5608159" cy="1141411"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E9903-FA14-4D2E-AE15-CE9847D7771D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="8110538"/>
-          <a:ext cx="5608159" cy="1141411"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>31751</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>28070</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6259513" cy="856166"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0552C69B-315A-455F-9343-80E800709370}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31751" y="9235570"/>
-          <a:ext cx="6259513" cy="856166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1111250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6052442" cy="2014537"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A26EA4-5529-432D-9808-0A9ECB2E1D10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3079750" y="534988"/>
-          <a:ext cx="6052442" cy="2014537"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>198439</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6132513" cy="1539900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DE5A9A-25F5-47A3-AADE-919455275704}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:srcRect l="-5820" t="58889" r="8022" b="-2256"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="198439" y="14346237"/>
-          <a:ext cx="6132513" cy="1539900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2709,265 +2178,50 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="PROVP"/>
+      <sheetName val="Comparisons"/>
+      <sheetName val="EPS Results"/>
+      <sheetName val="Table 38"/>
+      <sheetName val="Table 44"/>
+      <sheetName val="Table 49"/>
+      <sheetName val="NAP"/>
+      <sheetName val="CARB"/>
+      <sheetName val="Currency Conversion"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="42">
+          <cell r="B42">
+            <v>0.67491530146662049</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>0.19259262430771532</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>0.13249207422566411</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="INPUTS"/>
-      <sheetName val="kWhpMi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Config"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Contents"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Targets_byFleet"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Table 44"/>
-      <sheetName val="Table 49"/>
-      <sheetName val="AEO 39"/>
-      <sheetName val="Table_38"/>
-      <sheetName val="AEO 42"/>
-      <sheetName val="AEO 52"/>
-      <sheetName val="NREL_ATB_2020"/>
-      <sheetName val="NREL Calcs"/>
-      <sheetName val="LDV Cost Calcs"/>
-      <sheetName val="PHEV Price Calcs"/>
-      <sheetName val="Start Year psgr LDV EV Price"/>
-      <sheetName val="LDV Shares"/>
-      <sheetName val="EV freight LDVs"/>
-      <sheetName val="EV freight truck batteries"/>
-      <sheetName val="CARB ACT ISOR"/>
-      <sheetName val="Freight HDVs"/>
-      <sheetName val="Hydrogen Vehicle Calcs"/>
-      <sheetName val="Passenger Aircraft"/>
-      <sheetName val="Ships"/>
-      <sheetName val="Motorbikes"/>
-      <sheetName val="BNVP-LDVs-psgr"/>
-      <sheetName val="BNVP-LDVs-frgt"/>
-      <sheetName val="BNVP-HDVs-psgr"/>
-      <sheetName val="BNVP-HDVs-frgt"/>
-      <sheetName val="BNVP-aircraft-psgr"/>
-      <sheetName val="BNVP-aircraft-frgt"/>
-      <sheetName val="BNVP-rail-psgr"/>
-      <sheetName val="BNVP-rail-frgt"/>
-      <sheetName val="BNVP-ships-psgr"/>
-      <sheetName val="BNVP-ships-frgt"/>
-      <sheetName val="BNVP-motorbikes-psgr"/>
-      <sheetName val="BNVP-motorbikes-frgt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="121">
-          <cell r="A121">
-            <v>0.93665959530026111</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>0.91400000000000003</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>0.89805481563188172</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>0.88711067149387013</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="26">
-          <cell r="K26">
-            <v>970.98468000000003</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>981.23956299999998</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>966.18756099999996</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>953.71936000000005</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>966.38690199999996</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>964.77038600000003</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>940.58337400000005</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="26">
-          <cell r="K26">
-            <v>296.49893200000002</v>
-          </cell>
-          <cell r="U26">
-            <v>217.47422800000001</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="K27">
-            <v>295.82556199999999</v>
-          </cell>
-          <cell r="U27">
-            <v>216.90455600000001</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="K28">
-            <v>291.37560999999999</v>
-          </cell>
-          <cell r="U28">
-            <v>217.18345600000001</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="K29">
-            <v>286.20315599999998</v>
-          </cell>
-          <cell r="U29">
-            <v>221.50202899999999</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="K30">
-            <v>287.59738199999998</v>
-          </cell>
-          <cell r="U30">
-            <v>230.97200000000001</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="K31">
-            <v>284.73254400000002</v>
-          </cell>
-          <cell r="U31">
-            <v>230.983047</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="K32">
-            <v>273.59762599999999</v>
-          </cell>
-          <cell r="U32">
-            <v>222.50271599999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3032,7 +2286,108 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="PROVP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Table 44"/>
+      <sheetName val="Table 49"/>
+      <sheetName val="AEO 39"/>
+      <sheetName val="Table_38"/>
+      <sheetName val="AEO 42"/>
+      <sheetName val="AEO 52"/>
+      <sheetName val="NREL_ATB_2020"/>
+      <sheetName val="NREL Calcs"/>
+      <sheetName val="LDV Cost Calcs"/>
+      <sheetName val="PHEV Price Calcs"/>
+      <sheetName val="Start Year psgr LDV EV Price"/>
+      <sheetName val="CARB ACT ISOR"/>
+      <sheetName val="LDV Shares"/>
+      <sheetName val="Freight HDVs"/>
+      <sheetName val="Hydrogen Vehicle Calcs"/>
+      <sheetName val="Passenger Aircraft"/>
+      <sheetName val="Ships"/>
+      <sheetName val="Motorbikes"/>
+      <sheetName val="BNVP-LDVs-psgr"/>
+      <sheetName val="BNVP-LDVs-frgt"/>
+      <sheetName val="BNVP-HDVs-psgr"/>
+      <sheetName val="BNVP-HDVs-frgt"/>
+      <sheetName val="BNVP-aircraft-psgr"/>
+      <sheetName val="BNVP-aircraft-frgt"/>
+      <sheetName val="BNVP-rail-psgr"/>
+      <sheetName val="BNVP-rail-frgt"/>
+      <sheetName val="BNVP-ships-psgr"/>
+      <sheetName val="BNVP-ships-frgt"/>
+      <sheetName val="BNVP-motorbikes-psgr"/>
+      <sheetName val="BNVP-motorbikes-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="INPUTS"/>
+      <sheetName val="kWhpMi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3091,6 +2446,45 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Config"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Contents"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Targets_byFleet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3417,10 +2811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3438,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3468,12 +2862,12 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3483,27 +2877,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3513,22 +2907,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>203</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B21" s="77" t="s">
-        <v>198</v>
+      <c r="B21" s="45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>205</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3538,17 +2932,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B27" s="46" t="s">
-        <v>207</v>
+      <c r="B27" s="43" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>208</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -3566,19 +2960,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39">
+        <v>0.89805481563188172</v>
       </c>
     </row>
   </sheetData>
@@ -16278,8 +15680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A9DD83-4E8C-4A41-986C-F727F17C4502}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16590,11 +15992,474 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA837DA2-0F73-4943-9F40-28FFCE3BE017}">
+  <dimension ref="A9:AF27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>2020</v>
+      </c>
+      <c r="C10">
+        <v>2021</v>
+      </c>
+      <c r="D10">
+        <v>2022</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>2024</v>
+      </c>
+      <c r="G10">
+        <v>2025</v>
+      </c>
+      <c r="H10">
+        <v>2026</v>
+      </c>
+      <c r="I10">
+        <v>2027</v>
+      </c>
+      <c r="J10">
+        <v>2028</v>
+      </c>
+      <c r="K10">
+        <v>2029</v>
+      </c>
+      <c r="L10">
+        <v>2030</v>
+      </c>
+      <c r="M10">
+        <v>2031</v>
+      </c>
+      <c r="N10">
+        <v>2032</v>
+      </c>
+      <c r="O10">
+        <v>2033</v>
+      </c>
+      <c r="P10">
+        <v>2034</v>
+      </c>
+      <c r="Q10">
+        <v>2035</v>
+      </c>
+      <c r="R10">
+        <v>2036</v>
+      </c>
+      <c r="S10">
+        <v>2037</v>
+      </c>
+      <c r="T10">
+        <v>2038</v>
+      </c>
+      <c r="U10">
+        <v>2039</v>
+      </c>
+      <c r="V10">
+        <v>2040</v>
+      </c>
+      <c r="W10">
+        <v>2041</v>
+      </c>
+      <c r="X10">
+        <v>2042</v>
+      </c>
+      <c r="Y10">
+        <v>2043</v>
+      </c>
+      <c r="Z10">
+        <v>2044</v>
+      </c>
+      <c r="AA10">
+        <v>2045</v>
+      </c>
+      <c r="AB10">
+        <v>2046</v>
+      </c>
+      <c r="AC10">
+        <v>2047</v>
+      </c>
+      <c r="AD10">
+        <v>2048</v>
+      </c>
+      <c r="AE10">
+        <v>2049</v>
+      </c>
+      <c r="AF10">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11">
+        <v>64896</v>
+      </c>
+      <c r="G11">
+        <v>63635</v>
+      </c>
+      <c r="H11">
+        <v>62599</v>
+      </c>
+      <c r="I11">
+        <v>61684</v>
+      </c>
+      <c r="J11">
+        <v>60829</v>
+      </c>
+      <c r="K11">
+        <v>60035</v>
+      </c>
+      <c r="L11">
+        <v>59241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12">
+        <v>80127</v>
+      </c>
+      <c r="G12">
+        <v>77616</v>
+      </c>
+      <c r="H12">
+        <v>75585</v>
+      </c>
+      <c r="I12">
+        <v>73852</v>
+      </c>
+      <c r="J12">
+        <v>72267</v>
+      </c>
+      <c r="K12">
+        <v>70830</v>
+      </c>
+      <c r="L12">
+        <v>69394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13">
+        <v>116174</v>
+      </c>
+      <c r="G13">
+        <v>112591</v>
+      </c>
+      <c r="H13">
+        <v>109702</v>
+      </c>
+      <c r="I13">
+        <v>107253</v>
+      </c>
+      <c r="J13">
+        <v>105025</v>
+      </c>
+      <c r="K13">
+        <v>103016</v>
+      </c>
+      <c r="L13">
+        <v>101008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <v>2021</v>
+      </c>
+      <c r="D16">
+        <v>2022</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>2024</v>
+      </c>
+      <c r="G16">
+        <v>2025</v>
+      </c>
+      <c r="H16">
+        <v>2026</v>
+      </c>
+      <c r="I16">
+        <v>2027</v>
+      </c>
+      <c r="J16">
+        <v>2028</v>
+      </c>
+      <c r="K16">
+        <v>2029</v>
+      </c>
+      <c r="L16">
+        <v>2030</v>
+      </c>
+      <c r="M16">
+        <v>2031</v>
+      </c>
+      <c r="N16">
+        <v>2032</v>
+      </c>
+      <c r="O16">
+        <v>2033</v>
+      </c>
+      <c r="P16">
+        <v>2034</v>
+      </c>
+      <c r="Q16">
+        <v>2035</v>
+      </c>
+      <c r="R16">
+        <v>2036</v>
+      </c>
+      <c r="S16">
+        <v>2037</v>
+      </c>
+      <c r="T16">
+        <v>2038</v>
+      </c>
+      <c r="U16">
+        <v>2039</v>
+      </c>
+      <c r="V16">
+        <v>2040</v>
+      </c>
+      <c r="W16">
+        <v>2041</v>
+      </c>
+      <c r="X16">
+        <v>2042</v>
+      </c>
+      <c r="Y16">
+        <v>2043</v>
+      </c>
+      <c r="Z16">
+        <v>2044</v>
+      </c>
+      <c r="AA16">
+        <v>2045</v>
+      </c>
+      <c r="AB16">
+        <v>2046</v>
+      </c>
+      <c r="AC16">
+        <v>2047</v>
+      </c>
+      <c r="AD16">
+        <v>2048</v>
+      </c>
+      <c r="AE16">
+        <v>2049</v>
+      </c>
+      <c r="AF16">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17">
+        <f>F11*About!$B$39</f>
+        <v>58280.165315246595</v>
+      </c>
+      <c r="G17">
+        <f>G11*About!$B$39</f>
+        <v>57147.718192734792</v>
+      </c>
+      <c r="H17">
+        <f>H11*About!$B$39</f>
+        <v>56217.333403740166</v>
+      </c>
+      <c r="I17">
+        <f>I11*About!$B$39</f>
+        <v>55395.613247436995</v>
+      </c>
+      <c r="J17">
+        <f>J11*About!$B$39</f>
+        <v>54627.776380071737</v>
+      </c>
+      <c r="K17">
+        <f>K11*About!$B$39</f>
+        <v>53914.720856460022</v>
+      </c>
+      <c r="L17">
+        <f>L11*About!$B$39</f>
+        <v>53201.665332848308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18">
+        <f>F12*About!$B$39</f>
+        <v>71958.438212135792</v>
+      </c>
+      <c r="G18">
+        <f>G12*About!$B$39</f>
+        <v>69703.422570084134</v>
+      </c>
+      <c r="H18">
+        <f>H12*About!$B$39</f>
+        <v>67879.473239535786</v>
+      </c>
+      <c r="I18">
+        <f>I12*About!$B$39</f>
+        <v>66323.144244045732</v>
+      </c>
+      <c r="J18">
+        <f>J12*About!$B$39</f>
+        <v>64899.727361269193</v>
+      </c>
+      <c r="K18">
+        <f>K12*About!$B$39</f>
+        <v>63609.222591206184</v>
+      </c>
+      <c r="L18">
+        <f>L12*About!$B$39</f>
+        <v>62319.6158759588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19">
+        <f>F13*About!$B$39</f>
+        <v>104330.62015121823</v>
+      </c>
+      <c r="G19">
+        <f>G13*About!$B$39</f>
+        <v>101112.88974680919</v>
+      </c>
+      <c r="H19">
+        <f>H13*About!$B$39</f>
+        <v>98518.409384448692</v>
+      </c>
+      <c r="I19">
+        <f>I13*About!$B$39</f>
+        <v>96319.073140966211</v>
+      </c>
+      <c r="J19">
+        <f>J13*About!$B$39</f>
+        <v>94318.207011738385</v>
+      </c>
+      <c r="K19">
+        <f>K13*About!$B$39</f>
+        <v>92514.014887133933</v>
+      </c>
+      <c r="L19">
+        <f>L13*About!$B$39</f>
+        <v>90710.720817345107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21">
+        <f>SUMPRODUCT('Freight LDVs'!F17:F19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>67015.820068708723</v>
+      </c>
+      <c r="G21">
+        <f>SUMPRODUCT('Freight LDVs'!G17:G19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>65390.891021686853</v>
+      </c>
+      <c r="H21">
+        <f>SUMPRODUCT('Freight LDVs'!H17:H19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>64067.932818421083</v>
+      </c>
+      <c r="I21">
+        <f>SUMPRODUCT('Freight LDVs'!I17:I19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>62922.20920506223</v>
+      </c>
+      <c r="J21">
+        <f>SUMPRODUCT('Freight LDVs'!J17:J19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>61864.745857600108</v>
+      </c>
+      <c r="K21">
+        <f>SUMPRODUCT('Freight LDVs'!K17:K19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>60895.910916680761</v>
+      </c>
+      <c r="L21">
+        <f>SUMPRODUCT('Freight LDVs'!L17:L19,'[10]Table 44'!$B$42:$B$44)</f>
+        <v>59927.367919640412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B24">
+        <v>74481.20175540229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="4">
+        <f>1-L21/B24</f>
+        <v>0.19540277939602735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26">
+        <v>60169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="4">
+        <f>1-B26/B24</f>
+        <v>0.19215857717231577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D467F6A-158D-470D-AB54-4C074C652D59}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16608,38 +16473,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="45" t="s">
-        <v>113</v>
+      <c r="B1" s="42" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" s="44">
-        <f>B5*cpi_2018to2012</f>
-        <v>65177.846652390654</v>
+        <v>100</v>
+      </c>
+      <c r="B2" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" s="43">
-        <f>B19*B11+C19*B12+D19*B13</f>
-        <v>71310.554324278608</v>
+        <v>100</v>
+      </c>
+      <c r="B5" s="40" t="e">
+        <f>#REF!*#REF!+#REF!*#REF!+#REF!*#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -16648,402 +16512,119 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f>B23</f>
-        <v>Vehicle cost not including battery</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f>'EV freight truck batteries'!$D$19</f>
-        <v>Battery cost (based on 2019 battery pack price)</v>
-      </c>
-      <c r="E10" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="B9" s="39"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="str">
-        <f>A24</f>
-        <v>2-3</v>
-      </c>
-      <c r="B11" s="43">
-        <f>D11+C11</f>
-        <v>65732</v>
-      </c>
-      <c r="C11" s="42">
-        <f>B24</f>
-        <v>55337</v>
-      </c>
-      <c r="D11" s="41">
-        <f>'EV freight truck batteries'!D20</f>
-        <v>10395</v>
-      </c>
-      <c r="E11" s="4">
-        <f>D11/(D11+C11)</f>
-        <v>0.15814215298484757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="str">
-        <f>A25</f>
-        <v>4-5</v>
-      </c>
-      <c r="B12" s="43">
-        <f>D12+C12</f>
-        <v>82459</v>
-      </c>
-      <c r="C12" s="42">
-        <f>B25</f>
-        <v>56664</v>
-      </c>
-      <c r="D12" s="41">
-        <f>'EV freight truck batteries'!D21</f>
-        <v>25795</v>
-      </c>
-      <c r="E12" s="4">
-        <f>D12/(D12+C12)</f>
-        <v>0.31282212978571167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="str">
-        <f>A26</f>
+        <f>'Heavy freight'!A15</f>
         <v>6-7</v>
       </c>
-      <c r="B13" s="43">
-        <f>D13+C13</f>
-        <v>119914</v>
-      </c>
-      <c r="C13" s="42">
-        <f>B26</f>
+      <c r="B11" s="34">
+        <f>C11-D11</f>
         <v>81414</v>
       </c>
-      <c r="D13" s="41">
-        <f>'EV freight truck batteries'!D22</f>
-        <v>38500</v>
-      </c>
-      <c r="E13" s="4">
-        <f>D13/(D13+C13)</f>
-        <v>0.32106342879063327</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="str">
-        <f>'CARB ACT ISOR'!G27</f>
-        <v>LDV Freight</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="str">
-        <f>'CARB ACT ISOR'!G28</f>
-        <v>Class 2b-3</v>
-      </c>
-      <c r="C18" t="str">
-        <f>'CARB ACT ISOR'!H28</f>
-        <v>Class 4-5</v>
-      </c>
-      <c r="D18" t="str">
-        <f>'CARB ACT ISOR'!I28</f>
-        <v>Class 6-7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="str">
-        <f>'CARB ACT ISOR'!F29</f>
-        <v>Sales Share (2024-2030)</v>
-      </c>
-      <c r="B19" s="40">
-        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32)*1000/E19</f>
-        <v>0.84903672433063349</v>
-      </c>
-      <c r="C19" s="40">
-        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!H46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
-        <v>6.9441673422480865E-2</v>
-      </c>
-      <c r="D19" s="40">
-        <f>SUM('[7]Table 49'!U26:U32)*1000*('CARB ACT ISOR'!I46/('CARB ACT ISOR'!I46+'CARB ACT ISOR'!H46))/E19</f>
-        <v>8.1521602246885733E-2</v>
-      </c>
-      <c r="E19" s="39">
-        <f>SUM('[7]Table 44'!K26:K32,'[7]Table 49'!K26:K32,'[7]Table 49'!U26:U32)*1000</f>
-        <v>10317224.670000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="str">
-        <f>'EV freight LDVs'!A33</f>
-        <v>2-3</v>
-      </c>
-      <c r="B24" s="34">
-        <f>C24-D24</f>
-        <v>55337</v>
-      </c>
-      <c r="C24" s="34">
-        <f>'EV freight LDVs'!B33</f>
-        <v>67068.5</v>
-      </c>
-      <c r="D24" s="34">
-        <f>'EV freight truck batteries'!C20</f>
-        <v>11731.5</v>
-      </c>
-      <c r="E24" s="4">
-        <f>D24/C24</f>
-        <v>0.17491818066603548</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="str">
-        <f>'EV freight LDVs'!A34</f>
-        <v>4-5</v>
-      </c>
-      <c r="B25" s="34">
-        <f>C25-D25</f>
-        <v>56664</v>
-      </c>
-      <c r="C25" s="34">
-        <f>'EV freight LDVs'!B34</f>
-        <v>85775.5</v>
-      </c>
-      <c r="D25" s="34">
-        <f>'EV freight truck batteries'!C21</f>
-        <v>29111.500000000004</v>
-      </c>
-      <c r="E25" s="4">
-        <f>D25/C25</f>
-        <v>0.33939178436733103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="str">
-        <f>'EV freight LDVs'!A35</f>
-        <v>6-7</v>
-      </c>
-      <c r="B26" s="34">
-        <f>C26-D26</f>
-        <v>81414</v>
-      </c>
-      <c r="C26" s="34">
-        <f>'EV freight LDVs'!B35</f>
+      <c r="C11" s="34">
+        <f>'Heavy freight'!B15</f>
         <v>124864</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D11" s="34">
         <f>'EV freight truck batteries'!C22</f>
         <v>43450</v>
       </c>
-      <c r="E26" s="4">
-        <f>D26/C26</f>
-        <v>0.34797860071758074</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="34">
-        <f>D48</f>
-        <v>67068.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="35" t="s">
+      <c r="E11" s="4">
+        <f>D11/C11</f>
+        <v>0.34797860071758074</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="34">
-        <f>D49</f>
-        <v>85775.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="34">
-        <f>D50</f>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="34">
+        <f>D25</f>
         <v>124864</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39">
-        <f>'EV freight truck batteries'!B28</f>
-        <v>55</v>
-      </c>
-      <c r="C39">
-        <f>'EV freight truck batteries'!C28</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40">
-        <f>'EV freight truck batteries'!B29</f>
-        <v>135</v>
-      </c>
-      <c r="C40">
-        <f>'EV freight truck batteries'!C29</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
         <f>'EV freight truck batteries'!B30</f>
         <v>200</v>
       </c>
-      <c r="C41">
+      <c r="C18">
         <f>'EV freight truck batteries'!C30</f>
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20">
         <f>'EV freight truck batteries'!$E$38</f>
         <v>173.8</v>
       </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="35" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="34">
-        <f>'EV freight truck batteries'!B38</f>
-        <v>64896</v>
-      </c>
-      <c r="C48" s="34">
-        <f>'EV freight truck batteries'!C38</f>
-        <v>69241</v>
-      </c>
-      <c r="D48">
-        <f>(C48+B48)/2</f>
-        <v>67068.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="35" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="34">
-        <f>'EV freight truck batteries'!B39</f>
-        <v>80127</v>
-      </c>
-      <c r="C49" s="34">
-        <f>'EV freight truck batteries'!C39</f>
-        <v>91424</v>
-      </c>
-      <c r="D49">
-        <f>(C49+B49)/2</f>
-        <v>85775.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="35" t="s">
+      <c r="D24" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="34">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="34">
         <f>'EV freight truck batteries'!B40</f>
         <v>116174</v>
       </c>
-      <c r="C50" s="34">
+      <c r="C25" s="34">
         <f>'EV freight truck batteries'!C40</f>
         <v>133554</v>
       </c>
-      <c r="D50">
-        <f>(C50+B50)/2</f>
+      <c r="D25" s="40">
+        <f>(C25+B25)/2</f>
         <v>124864</v>
       </c>
     </row>
@@ -17053,12 +16634,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995C4628-A388-4B62-B80E-759D21A3AB7D}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17070,37 +16651,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="47">
+      <c r="A6" s="44">
         <v>43004</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -17114,10 +16695,10 @@
         <v>154</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -17125,27 +16706,27 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="47">
+      <c r="A14" s="44">
         <v>43802</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
-        <v>125</v>
+      <c r="A15" s="43" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -17156,68 +16737,68 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" t="str">
-        <f>E27</f>
+        <f t="shared" ref="B19:B24" si="0">E27</f>
         <v>Average</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B20">
-        <f>E28</f>
+        <f t="shared" si="0"/>
         <v>67.5</v>
       </c>
       <c r="C20" s="34">
         <f>B20*$E$38</f>
         <v>11731.5</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="38">
         <f>B20*$A$10</f>
         <v>10395</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <f>E29</f>
+        <f t="shared" si="0"/>
         <v>167.5</v>
       </c>
       <c r="C21" s="34">
         <f>B21*$E$38</f>
         <v>29111.500000000004</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="38">
         <f>B21*$A$10</f>
         <v>25795</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <f>E30</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="C22" s="34">
         <f>B22*$E$38</f>
         <v>43450</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="38">
         <f>B22*$A$10</f>
         <v>38500</v>
       </c>
@@ -17227,31 +16808,31 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <f>E31</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="C23" s="34">
         <f>B23*$E$38</f>
         <v>52140</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="38">
         <f>B23*$A$10</f>
         <v>46200</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B24">
-        <f>E32</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="C24" s="34">
         <f>B24*$E$38</f>
         <v>69520</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="38">
         <f>B24*$A$10</f>
         <v>61600</v>
       </c>
@@ -17261,26 +16842,26 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>55</v>
@@ -17299,7 +16880,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>135</v>
@@ -17318,7 +16899,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -17356,7 +16937,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>400</v>
@@ -17368,7 +16949,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -17379,17 +16960,17 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <f>64896</f>
@@ -17409,7 +16990,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>80127</v>
@@ -17428,7 +17009,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>116174</v>
@@ -17466,7 +17047,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="35" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>201351</v>
@@ -17474,12 +17055,12 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -17488,1143 +17069,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AB7CB3-320B-4564-A868-DC7FC0585BBF}">
-  <dimension ref="A1:K91"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.453125" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="16.453125" customWidth="1"/>
-    <col min="6" max="6" width="25.453125" customWidth="1"/>
-    <col min="7" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="76" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="74" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F15" s="64" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="64"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="73"/>
-      <c r="B17" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>191</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="52">
-        <v>524</v>
-      </c>
-      <c r="C18" s="52">
-        <v>963</v>
-      </c>
-      <c r="D18" s="52">
-        <v>1364</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H18" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="51" t="s">
-        <v>187</v>
-      </c>
-      <c r="B19" s="52">
-        <v>1110</v>
-      </c>
-      <c r="C19" s="52">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="52">
-        <v>2662</v>
-      </c>
-      <c r="F19" s="53">
-        <v>2024</v>
-      </c>
-      <c r="G19" s="60">
-        <v>53761</v>
-      </c>
-      <c r="H19" s="60">
-        <v>6436</v>
-      </c>
-      <c r="I19" s="60">
-        <v>7556</v>
-      </c>
-      <c r="J19" s="60">
-        <v>1119</v>
-      </c>
-      <c r="K19" s="71">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B20" s="52">
-        <f>6484*cpi_2018to2012</f>
-        <v>5926.3760000000002</v>
-      </c>
-      <c r="C20" s="52">
-        <f>10101*cpi_2018to2012</f>
-        <v>9232.3140000000003</v>
-      </c>
-      <c r="D20" s="52">
-        <f>12442*cpi_2018to2012</f>
-        <v>11371.988000000001</v>
-      </c>
-      <c r="F20" s="53">
-        <v>2025</v>
-      </c>
-      <c r="G20" s="60">
-        <v>54217</v>
-      </c>
-      <c r="H20" s="60">
-        <v>6531</v>
-      </c>
-      <c r="I20" s="60">
-        <v>7667</v>
-      </c>
-      <c r="J20" s="60">
-        <v>1137</v>
-      </c>
-      <c r="K20" s="71">
-        <v>4769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="B21" s="61">
-        <f>(B18*$G$46+B19*SUM($H$46:$J$46))*cpi_2018to2012</f>
-        <v>658.83351490019675</v>
-      </c>
-      <c r="C21" s="61">
-        <f>(C18*$G$46+C19*SUM($H$46:$J$46))*cpi_2018to2012</f>
-        <v>1205.2868946745875</v>
-      </c>
-      <c r="D21" s="61">
-        <f>(D18*$G$46+D19*SUM($H$46:$J$46))*cpi_2018to2012</f>
-        <v>1645.1720654273984</v>
-      </c>
-      <c r="F21" s="53">
-        <v>2026</v>
-      </c>
-      <c r="G21" s="60">
-        <v>54753</v>
-      </c>
-      <c r="H21" s="60">
-        <v>6649</v>
-      </c>
-      <c r="I21" s="60">
-        <v>7806</v>
-      </c>
-      <c r="J21" s="60">
-        <v>1177</v>
-      </c>
-      <c r="K21" s="71">
-        <v>4918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="62"/>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="F22" s="53">
-        <v>2027</v>
-      </c>
-      <c r="G22" s="60">
-        <v>55152</v>
-      </c>
-      <c r="H22" s="60">
-        <v>6786</v>
-      </c>
-      <c r="I22" s="60">
-        <v>7966</v>
-      </c>
-      <c r="J22" s="60">
-        <v>1194</v>
-      </c>
-      <c r="K22" s="71">
-        <v>4993</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="F23" s="53">
-        <v>2028</v>
-      </c>
-      <c r="G23" s="60">
-        <v>55765</v>
-      </c>
-      <c r="H23" s="60">
-        <v>6904</v>
-      </c>
-      <c r="I23" s="60">
-        <v>8105</v>
-      </c>
-      <c r="J23" s="60">
-        <v>1216</v>
-      </c>
-      <c r="K23" s="71">
-        <v>5075</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="62" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="F24" s="53">
-        <v>2029</v>
-      </c>
-      <c r="G24" s="60">
-        <v>56371</v>
-      </c>
-      <c r="H24" s="60">
-        <v>7024</v>
-      </c>
-      <c r="I24" s="60">
-        <v>8246</v>
-      </c>
-      <c r="J24" s="60">
-        <v>1239</v>
-      </c>
-      <c r="K24" s="71">
-        <v>5161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F25" s="53">
-        <v>2030</v>
-      </c>
-      <c r="G25" s="60">
-        <v>56968</v>
-      </c>
-      <c r="H25" s="60">
-        <v>7147</v>
-      </c>
-      <c r="I25" s="60">
-        <v>8390</v>
-      </c>
-      <c r="J25" s="60">
-        <v>1264</v>
-      </c>
-      <c r="K25" s="71">
-        <v>5263</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F26" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="60">
-        <f>SUM(G19:G25)</f>
-        <v>386987</v>
-      </c>
-      <c r="H26" s="60">
-        <f>SUM(H19:H25)</f>
-        <v>47477</v>
-      </c>
-      <c r="I26" s="60">
-        <f>SUM(I19:I25)</f>
-        <v>55736</v>
-      </c>
-      <c r="J26" s="60">
-        <f>SUM(J19:J25)</f>
-        <v>8346</v>
-      </c>
-      <c r="K26" s="60">
-        <f>SUM(K19:K25)</f>
-        <v>34865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F27" s="59"/>
-      <c r="G27" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="70" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J28" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="K28" s="69" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F29" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="54">
-        <f>G26/SUM($G26:$J26)</f>
-        <v>0.7762312805638798</v>
-      </c>
-      <c r="H29" s="54">
-        <f>H26/SUM($G26:$J26)</f>
-        <v>9.5230931548944325E-2</v>
-      </c>
-      <c r="I29" s="54">
-        <f>I26/SUM($G26:$J26)</f>
-        <v>0.11179710598420206</v>
-      </c>
-      <c r="J29" s="54">
-        <f>J26/SUM($G26:$J26)</f>
-        <v>1.6740681902973849E-2</v>
-      </c>
-      <c r="K29" s="68">
-        <f>K19/K19</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F30" s="53"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="68"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C31" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>178</v>
-      </c>
-      <c r="F31" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C32" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="52">
-        <v>45000</v>
-      </c>
-      <c r="F32" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C33" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="52">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C34" s="51" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="52">
-        <v>55000</v>
-      </c>
-      <c r="F34" s="64" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C35" s="51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="52">
-        <v>85000</v>
-      </c>
-      <c r="F35" t="str">
-        <f>F18</f>
-        <v>Model Year</v>
-      </c>
-      <c r="G35" t="str">
-        <f>G18</f>
-        <v>Class 2b-3</v>
-      </c>
-      <c r="H35" t="str">
-        <f>H18</f>
-        <v>Class 4-5</v>
-      </c>
-      <c r="I35" t="str">
-        <f>I18</f>
-        <v>Class 6-7</v>
-      </c>
-      <c r="J35" t="str">
-        <f>J18</f>
-        <v>Class 8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C36" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="52">
-        <v>120000</v>
-      </c>
-      <c r="F36">
-        <f>F19</f>
-        <v>2024</v>
-      </c>
-      <c r="G36" s="48">
-        <f>G19*$B$76</f>
-        <v>30643.769999999997</v>
-      </c>
-      <c r="H36" s="48">
-        <f>H19</f>
-        <v>6436</v>
-      </c>
-      <c r="I36" s="48">
-        <f>I19</f>
-        <v>7556</v>
-      </c>
-      <c r="J36" s="48">
-        <f>J19</f>
-        <v>1119</v>
-      </c>
-      <c r="K36" s="48"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C37" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="52">
-        <v>130000</v>
-      </c>
-      <c r="E37" s="41">
-        <f>D37*cpi_2018to2012</f>
-        <v>118820</v>
-      </c>
-      <c r="F37">
-        <f>F20</f>
-        <v>2025</v>
-      </c>
-      <c r="G37" s="48">
-        <f>G20*$B$76</f>
-        <v>30903.69</v>
-      </c>
-      <c r="H37" s="48">
-        <f>H20</f>
-        <v>6531</v>
-      </c>
-      <c r="I37" s="48">
-        <f>I20</f>
-        <v>7667</v>
-      </c>
-      <c r="J37" s="48">
-        <f>J20</f>
-        <v>1137</v>
-      </c>
-      <c r="K37" s="48"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F38">
-        <f>F21</f>
-        <v>2026</v>
-      </c>
-      <c r="G38" s="48">
-        <f>G21*$B$76</f>
-        <v>31209.21</v>
-      </c>
-      <c r="H38" s="48">
-        <f>H21</f>
-        <v>6649</v>
-      </c>
-      <c r="I38" s="48">
-        <f>I21</f>
-        <v>7806</v>
-      </c>
-      <c r="J38" s="48">
-        <f>J21</f>
-        <v>1177</v>
-      </c>
-      <c r="K38" s="48"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D39" t="s">
-        <v>171</v>
-      </c>
-      <c r="E39" t="s">
-        <v>170</v>
-      </c>
-      <c r="F39">
-        <f>F22</f>
-        <v>2027</v>
-      </c>
-      <c r="G39" s="48">
-        <f>G22*$B$76</f>
-        <v>31436.639999999996</v>
-      </c>
-      <c r="H39" s="48">
-        <f>H22</f>
-        <v>6786</v>
-      </c>
-      <c r="I39" s="48">
-        <f>I22</f>
-        <v>7966</v>
-      </c>
-      <c r="J39" s="48">
-        <f>J22</f>
-        <v>1194</v>
-      </c>
-      <c r="K39" s="48"/>
-    </row>
-    <row r="40" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="C40" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="D40" s="61">
-        <f>D33*G46+D34*H46+D35*I46</f>
-        <v>55331.59668441402</v>
-      </c>
-      <c r="E40" s="41">
-        <f>D40*cpi_2018to2012</f>
-        <v>50573.07936955442</v>
-      </c>
-      <c r="F40">
-        <f>F23</f>
-        <v>2028</v>
-      </c>
-      <c r="G40" s="48">
-        <f>G23*$B$76</f>
-        <v>31786.049999999996</v>
-      </c>
-      <c r="H40" s="48">
-        <f>H23</f>
-        <v>6904</v>
-      </c>
-      <c r="I40" s="48">
-        <f>I23</f>
-        <v>8105</v>
-      </c>
-      <c r="J40" s="48">
-        <f>J23</f>
-        <v>1216</v>
-      </c>
-      <c r="K40" s="48"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="D41" s="61">
-        <f>(D32/D33)*D40</f>
-        <v>49798.437015972617</v>
-      </c>
-      <c r="E41" s="41">
-        <f>D41*cpi_2018to2012</f>
-        <v>45515.771432598973</v>
-      </c>
-      <c r="F41">
-        <f>F24</f>
-        <v>2029</v>
-      </c>
-      <c r="G41" s="48">
-        <f>G24*$B$76</f>
-        <v>32131.469999999998</v>
-      </c>
-      <c r="H41" s="48">
-        <f>H24</f>
-        <v>7024</v>
-      </c>
-      <c r="I41" s="48">
-        <f>I24</f>
-        <v>8246</v>
-      </c>
-      <c r="J41" s="48">
-        <f>J24</f>
-        <v>1239</v>
-      </c>
-      <c r="K41" s="48"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F42">
-        <f>F25</f>
-        <v>2030</v>
-      </c>
-      <c r="G42" s="48">
-        <f>G25*$B$76</f>
-        <v>32471.759999999998</v>
-      </c>
-      <c r="H42" s="48">
-        <f>H25</f>
-        <v>7147</v>
-      </c>
-      <c r="I42" s="48">
-        <f>I25</f>
-        <v>8390</v>
-      </c>
-      <c r="J42" s="48">
-        <f>J25</f>
-        <v>1264</v>
-      </c>
-      <c r="K42" s="48"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F43" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="G43" s="60">
-        <f>SUM(G36:G42)</f>
-        <v>220582.59</v>
-      </c>
-      <c r="H43" s="60">
-        <f>SUM(H36:H42)</f>
-        <v>47477</v>
-      </c>
-      <c r="I43" s="60">
-        <f>SUM(I36:I42)</f>
-        <v>55736</v>
-      </c>
-      <c r="J43" s="60">
-        <f>SUM(J36:J42)</f>
-        <v>8346</v>
-      </c>
-      <c r="K43" s="48">
-        <f>G43+H43+I43+J43</f>
-        <v>332141.58999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="59"/>
-      <c r="G44" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="48"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F45" s="56"/>
-      <c r="G45" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="H45" s="53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I45" s="53" t="s">
-        <v>161</v>
-      </c>
-      <c r="J45" s="53" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="F46" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="G46" s="54">
-        <f>G43/SUM($G43:$J43)</f>
-        <v>0.66412215946819553</v>
-      </c>
-      <c r="H46" s="54">
-        <f>H43/SUM($G43:$J43)</f>
-        <v>0.1429420507079526</v>
-      </c>
-      <c r="I46" s="54">
-        <f>I43/SUM($G43:$J43)</f>
-        <v>0.16780795202431592</v>
-      </c>
-      <c r="J46" s="54">
-        <f>J43/SUM($G43:$J43)</f>
-        <v>2.5127837799536038E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="E62" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="G62" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="H62" s="53" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="52">
-        <v>64896</v>
-      </c>
-      <c r="C63" s="52">
-        <v>63635</v>
-      </c>
-      <c r="D63" s="52">
-        <v>62599</v>
-      </c>
-      <c r="E63" s="52">
-        <v>61684</v>
-      </c>
-      <c r="F63" s="52">
-        <v>60829</v>
-      </c>
-      <c r="G63" s="52">
-        <v>60035</v>
-      </c>
-      <c r="H63" s="52">
-        <v>59241</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B64" s="52">
-        <v>69241</v>
-      </c>
-      <c r="C64" s="52">
-        <v>67568</v>
-      </c>
-      <c r="D64" s="52">
-        <v>66201</v>
-      </c>
-      <c r="E64" s="52">
-        <v>65011</v>
-      </c>
-      <c r="F64" s="52">
-        <v>63909</v>
-      </c>
-      <c r="G64" s="52">
-        <v>62895</v>
-      </c>
-      <c r="H64" s="52">
-        <v>61881</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65" s="52">
-        <v>80127</v>
-      </c>
-      <c r="C65" s="52">
-        <v>77616</v>
-      </c>
-      <c r="D65" s="52">
-        <v>75585</v>
-      </c>
-      <c r="E65" s="52">
-        <v>73852</v>
-      </c>
-      <c r="F65" s="52">
-        <v>72267</v>
-      </c>
-      <c r="G65" s="52">
-        <v>70830</v>
-      </c>
-      <c r="H65" s="52">
-        <v>69394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="52">
-        <v>91424</v>
-      </c>
-      <c r="C66" s="52">
-        <v>87841</v>
-      </c>
-      <c r="D66" s="52">
-        <v>84952</v>
-      </c>
-      <c r="E66" s="52">
-        <v>82503</v>
-      </c>
-      <c r="F66" s="52">
-        <v>80275</v>
-      </c>
-      <c r="G66" s="52">
-        <v>78266</v>
-      </c>
-      <c r="H66" s="52">
-        <v>76258</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="52">
-        <v>116174</v>
-      </c>
-      <c r="C67" s="52">
-        <v>112591</v>
-      </c>
-      <c r="D67" s="52">
-        <v>109702</v>
-      </c>
-      <c r="E67" s="52">
-        <v>107253</v>
-      </c>
-      <c r="F67" s="52">
-        <v>105025</v>
-      </c>
-      <c r="G67" s="52">
-        <v>103016</v>
-      </c>
-      <c r="H67" s="52">
-        <v>101008</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="52">
-        <v>133554</v>
-      </c>
-      <c r="C68" s="52">
-        <v>128321</v>
-      </c>
-      <c r="D68" s="52">
-        <v>124112</v>
-      </c>
-      <c r="E68" s="52">
-        <v>120563</v>
-      </c>
-      <c r="F68" s="52">
-        <v>117345</v>
-      </c>
-      <c r="G68" s="52">
-        <v>114456</v>
-      </c>
-      <c r="H68" s="52">
-        <v>111568</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="52">
-        <v>154799</v>
-      </c>
-      <c r="C69" s="52">
-        <v>150486</v>
-      </c>
-      <c r="D69" s="52">
-        <v>147007</v>
-      </c>
-      <c r="E69" s="52">
-        <v>144057</v>
-      </c>
-      <c r="F69" s="52">
-        <v>141371</v>
-      </c>
-      <c r="G69" s="52">
-        <v>138949</v>
-      </c>
-      <c r="H69" s="52">
-        <v>136527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="52">
-        <v>175655</v>
-      </c>
-      <c r="C70" s="52">
-        <v>169362</v>
-      </c>
-      <c r="D70" s="52">
-        <v>164299</v>
-      </c>
-      <c r="E70" s="52">
-        <v>160029</v>
-      </c>
-      <c r="F70" s="52">
-        <v>156155</v>
-      </c>
-      <c r="G70" s="52">
-        <v>152677</v>
-      </c>
-      <c r="H70" s="52">
-        <v>149199</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="52">
-        <v>201351</v>
-      </c>
-      <c r="C71" s="52">
-        <v>194134</v>
-      </c>
-      <c r="D71" s="52">
-        <v>188312</v>
-      </c>
-      <c r="E71" s="52">
-        <v>183371</v>
-      </c>
-      <c r="F71" s="52">
-        <v>178870</v>
-      </c>
-      <c r="G71" s="52">
-        <v>174809</v>
-      </c>
-      <c r="H71" s="52">
-        <v>170748</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="52">
-        <v>216931</v>
-      </c>
-      <c r="C72" s="52">
-        <v>212353</v>
-      </c>
-      <c r="D72" s="52">
-        <v>207885</v>
-      </c>
-      <c r="E72" s="52">
-        <v>203439</v>
-      </c>
-      <c r="F72" s="52">
-        <v>199004</v>
-      </c>
-      <c r="G72" s="52">
-        <v>194579</v>
-      </c>
-      <c r="H72" s="52">
-        <v>190155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74">
-        <f>B72/B71</f>
-        <v>1.077377316228874</v>
-      </c>
-      <c r="C74">
-        <f>C72/C71</f>
-        <v>1.0938475486004513</v>
-      </c>
-      <c r="D74">
-        <f>D72/D71</f>
-        <v>1.1039392072730363</v>
-      </c>
-      <c r="E74">
-        <f>E72/E71</f>
-        <v>1.109439333373325</v>
-      </c>
-      <c r="F74">
-        <f>F72/F71</f>
-        <v>1.1125621960082741</v>
-      </c>
-      <c r="G74">
-        <f>G72/G71</f>
-        <v>1.1130948635367743</v>
-      </c>
-      <c r="H74">
-        <f>H72/H71</f>
-        <v>1.113658725138801</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>139</v>
-      </c>
-      <c r="B76" s="50">
-        <f>0.57</f>
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B88">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B89" s="49">
-        <v>59513.619728112782</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="48">
-        <f>$D$40</f>
-        <v>55331.59668441402</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="41">
-        <f>B89/B90</f>
-        <v>1.0755811018350165</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:J44"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{6CA68799-D590-4E9C-A58B-FCBBA33FC526}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -18876,7 +17320,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'EV freight LDVs'!E26</f>
+        <f>'Heavy freight'!E11</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C3" s="5">
@@ -19549,7 +17993,7 @@
   <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB26" sqref="AB26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19664,132 +18108,131 @@
         <v>4</v>
       </c>
       <c r="B2" s="5">
-        <f>'EV freight LDVs'!E24</f>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C2" s="5">
         <f>B2</f>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D2" s="5">
         <f t="shared" ref="D2:AG2" si="0">C2</f>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="H2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="J2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="K2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="M2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="N2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="O2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="P2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="Q2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="R2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="S2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="T2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="U2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="V2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="W2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="X2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="Y2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="Z2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AA2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AB2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AC2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AD2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AE2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AF2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="AG2" s="5">
         <f t="shared" si="0"/>
-        <v>0.17491818066603548</v>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -19797,7 +18240,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="5">
-        <f>'EV freight LDVs'!E26</f>
+        <f>'Heavy freight'!E11</f>
         <v>0.34797860071758074</v>
       </c>
       <c r="C3" s="5">

--- a/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
+++ b/InputData/trans/BBSoEVP/BBSoEVP BAU Battery Share of Electric Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BBSoEVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AL/trans/BBSoEVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10249609-DBFB-46BB-8EC7-67E2DDFAE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{240EC031-548A-7342-9526-1CD1A0A923C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Sources:</t>
   </si>
@@ -534,6 +534,9 @@
   <si>
     <t>Sales Share by Vehicle Class</t>
   </si>
+  <si>
+    <t>Alabama</t>
+  </si>
 </sst>
 </file>
 
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -772,6 +775,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{13E1CFA4-3A09-44CF-A6C2-A41B6FD4087E}"/>
@@ -2811,23 +2815,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="80.1796875" customWidth="1"/>
+    <col min="2" max="2" width="80.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="46">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2835,147 +2845,147 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" s="45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>139</v>
       </c>
@@ -3000,22 +3010,22 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.453125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="33" width="14.1796875" style="8" customWidth="1"/>
-    <col min="34" max="35" width="11.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="8.453125" style="8"/>
+    <col min="1" max="1" width="9.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="14.1640625" style="8" customWidth="1"/>
+    <col min="34" max="35" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="8.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3113,7 +3123,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
@@ -3211,7 +3221,7 @@
         <v>5701.9614259999998</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
@@ -3309,7 +3319,7 @@
         <v>9346.6884769999997</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="8">
         <v>12281.508301</v>
       </c>
@@ -3404,7 +3414,7 @@
         <v>15048.649903</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>21</v>
       </c>
@@ -3502,7 +3512,7 @@
         <v>0.37890185915371016</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>22</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>0.62109814084628989</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>23</v>
       </c>
@@ -3609,7 +3619,7 @@
       </c>
       <c r="C13" s="12"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
@@ -3710,7 +3720,7 @@
         <v>5.2311099999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>4.4015519999999995E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
@@ -3906,7 +3916,7 @@
         <v>0.13885448</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +4014,7 @@
         <v>0.33331726000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
         <v>30</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>0.11286979999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
@@ -4203,7 +4213,7 @@
         <v>9.1554599999999989E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>32</v>
       </c>
@@ -4301,7 +4311,7 @@
         <v>0.29214037000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -4399,7 +4409,7 @@
         <v>6.4415600000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
@@ -4497,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>35</v>
       </c>
@@ -4595,7 +4605,7 @@
         <v>3.3520629999999996E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>0.21498138</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>3.8551540000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
@@ -4889,7 +4899,7 @@
         <v>3.9426370000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
         <v>39</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>3.9069489999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>40</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>4.3252079999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>0.22664550999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
@@ -5281,13 +5291,13 @@
         <v>0.36455269000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
         <v>24</v>
       </c>
@@ -5296,7 +5306,7 @@
       </c>
       <c r="C33" s="12"/>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
@@ -5394,7 +5404,7 @@
         <v>1.9820773044375646E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B35" s="8" t="s">
         <v>27</v>
       </c>
@@ -5492,7 +5502,7 @@
         <v>1.6677562359617312E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
         <v>28</v>
       </c>
@@ -5590,7 +5600,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>29</v>
       </c>
@@ -5688,7 +5698,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
@@ -5786,7 +5796,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
         <v>31</v>
       </c>
@@ -5884,7 +5894,7 @@
         <v>3.4690208154074267E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
         <v>32</v>
       </c>
@@ -5982,7 +5992,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -6080,7 +6090,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>42</v>
       </c>
@@ -6181,7 +6191,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B43" s="8" t="s">
         <v>36</v>
       </c>
@@ -6279,7 +6289,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B44" s="8" t="s">
         <v>37</v>
       </c>
@@ -6377,7 +6387,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B45" s="8" t="s">
         <v>38</v>
       </c>
@@ -6475,7 +6485,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B46" s="8" t="s">
         <v>39</v>
       </c>
@@ -6573,7 +6583,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B47" s="8" t="s">
         <v>40</v>
       </c>
@@ -6671,7 +6681,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B48" s="8" t="s">
         <v>32</v>
       </c>
@@ -6769,7 +6779,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -6867,21 +6877,21 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C50" s="12"/>
     </row>
-    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B53" s="8" t="s">
         <v>26</v>
       </c>
@@ -6979,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B54" s="17" t="s">
         <v>27</v>
       </c>
@@ -7079,7 +7089,7 @@
       <c r="AH54" s="10"/>
       <c r="AI54" s="10"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B55" s="8" t="s">
         <v>28</v>
       </c>
@@ -7179,7 +7189,7 @@
       <c r="AH55" s="10"/>
       <c r="AI55" s="10"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B56" s="8" t="s">
         <v>29</v>
       </c>
@@ -7279,7 +7289,7 @@
       <c r="AH56" s="10"/>
       <c r="AI56" s="10"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B57" s="8" t="s">
         <v>30</v>
       </c>
@@ -7379,7 +7389,7 @@
       <c r="AH57" s="10"/>
       <c r="AI57" s="10"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B58" s="8" t="s">
         <v>31</v>
       </c>
@@ -7479,7 +7489,7 @@
       <c r="AH58" s="10"/>
       <c r="AI58" s="10"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B59" s="8" t="s">
         <v>32</v>
       </c>
@@ -7579,7 +7589,7 @@
       <c r="AH59" s="10"/>
       <c r="AI59" s="10"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B60" s="8" t="s">
         <v>33</v>
       </c>
@@ -7679,7 +7689,7 @@
       <c r="AH60" s="10"/>
       <c r="AI60" s="10"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
         <v>34</v>
       </c>
@@ -7782,7 +7792,7 @@
       <c r="AH61" s="10"/>
       <c r="AI61" s="10"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B62" s="8" t="s">
         <v>36</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B63" s="8" t="s">
         <v>37</v>
       </c>
@@ -7980,7 +7990,7 @@
       <c r="AH63" s="10"/>
       <c r="AI63" s="10"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B64" s="8" t="s">
         <v>38</v>
       </c>
@@ -8078,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B65" s="8" t="s">
         <v>39</v>
       </c>
@@ -8178,7 +8188,7 @@
       <c r="AH65" s="10"/>
       <c r="AI65" s="10"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B66" s="8" t="s">
         <v>40</v>
       </c>
@@ -8278,7 +8288,7 @@
       <c r="AH66" s="10"/>
       <c r="AI66" s="10"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B67" s="8" t="s">
         <v>32</v>
       </c>
@@ -8378,7 +8388,7 @@
       <c r="AH67" s="10"/>
       <c r="AI67" s="10"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>33</v>
       </c>
@@ -8478,18 +8488,18 @@
       <c r="AH68" s="10"/>
       <c r="AI68" s="10"/>
     </row>
-    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B72" s="8" t="s">
         <v>26</v>
       </c>
@@ -8587,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B73" s="8" t="s">
         <v>27</v>
       </c>
@@ -8685,7 +8695,7 @@
         <v>2.2128660479462301E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B74" s="8" t="s">
         <v>28</v>
       </c>
@@ -8783,7 +8793,7 @@
         <v>5.2612220623821669E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8891,7 @@
         <v>0.12629452950202061</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>30</v>
       </c>
@@ -8979,7 +8989,7 @@
         <v>4.276657706230743E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B77" s="8" t="s">
         <v>31</v>
       </c>
@@ -9077,7 +9087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B78" s="8" t="s">
         <v>32</v>
       </c>
@@ -9175,7 +9185,7 @@
         <v>0.11069252932685279</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B79" s="8" t="s">
         <v>33</v>
       </c>
@@ -9273,7 +9283,7 @@
         <v>2.4407190598501733E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A80" s="15" t="s">
         <v>42</v>
       </c>
@@ -9374,7 +9384,7 @@
         <v>2.0819600972996368E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B81" s="8" t="s">
         <v>36</v>
       </c>
@@ -9472,7 +9482,7 @@
         <v>0.13352453543456977</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B82" s="8" t="s">
         <v>37</v>
       </c>
@@ -9570,7 +9580,7 @@
         <v>2.394428982076138E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B83" s="8" t="s">
         <v>38</v>
       </c>
@@ -9668,7 +9678,7 @@
         <v>2.4487645107317938E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B84" s="8" t="s">
         <v>39</v>
       </c>
@@ -9766,7 +9776,7 @@
         <v>2.4265987602812712E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B85" s="8" t="s">
         <v>40</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>2.6863786475734997E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B86" s="8" t="s">
         <v>32</v>
       </c>
@@ -9962,7 +9972,7 @@
         <v>0.14076910489215921</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -10060,7 +10070,7 @@
         <v>0.22642299799951388</v>
       </c>
     </row>
-    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>45</v>
       </c>
@@ -10068,12 +10078,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B91" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>26</v>
       </c>
@@ -10174,7 +10184,7 @@
         <v>80968.872000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>27</v>
       </c>
@@ -10275,7 +10285,7 @@
         <v>44404.087</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>28</v>
       </c>
@@ -10376,7 +10386,7 @@
         <v>33275.711000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>29</v>
       </c>
@@ -10477,7 +10487,7 @@
         <v>30943.995000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>30</v>
       </c>
@@ -10578,7 +10588,7 @@
         <v>37861.674999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>31</v>
       </c>
@@ -10679,7 +10689,7 @@
         <v>106564.087</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>32</v>
       </c>
@@ -10780,7 +10790,7 @@
         <v>29992.21</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>33</v>
       </c>
@@ -10881,7 +10891,7 @@
         <v>38230.708999999995</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B100" s="8" t="s">
         <v>35</v>
       </c>
@@ -10979,7 +10989,7 @@
         <v>35264.445999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
@@ -11077,7 +11087,7 @@
         <v>40569.968999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>37</v>
       </c>
@@ -11175,7 +11185,7 @@
         <v>35530.845999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B103" s="8" t="s">
         <v>38</v>
       </c>
@@ -11273,7 +11283,7 @@
         <v>34065.201000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B104" s="8" t="s">
         <v>39</v>
       </c>
@@ -11371,7 +11381,7 @@
         <v>38625.667999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
         <v>40</v>
       </c>
@@ -11469,7 +11479,7 @@
         <v>64958.861999999994</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
         <v>56</v>
       </c>
@@ -11567,7 +11577,7 @@
         <v>33809.059000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>57</v>
       </c>
@@ -11665,7 +11675,7 @@
         <v>46370.635999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:33" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="24" t="s">
         <v>58</v>
@@ -11702,7 +11712,7 @@
       <c r="AF108" s="25"/>
       <c r="AG108" s="25"/>
     </row>
-    <row r="109" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B109" s="8" t="s">
         <v>48</v>
       </c>
@@ -11800,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B110" s="8" t="s">
         <v>49</v>
       </c>
@@ -11898,7 +11908,7 @@
         <v>47893.864000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B111" s="8" t="s">
         <v>50</v>
       </c>
@@ -11996,7 +12006,7 @@
         <v>37207.881999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B112" s="8" t="s">
         <v>51</v>
       </c>
@@ -12094,7 +12104,7 @@
         <v>34765.69</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B113" s="8" t="s">
         <v>52</v>
       </c>
@@ -12192,7 +12202,7 @@
         <v>41727.862999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B114" s="8" t="s">
         <v>53</v>
       </c>
@@ -12290,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B115" s="8" t="s">
         <v>54</v>
       </c>
@@ -12388,7 +12398,7 @@
         <v>33879.688000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B116" s="8" t="s">
         <v>55</v>
       </c>
@@ -12486,7 +12496,7 @@
         <v>42019.215000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>41482.201000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B118" s="8" t="s">
         <v>36</v>
       </c>
@@ -12682,7 +12692,7 @@
         <v>46803.074000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B119" s="8" t="s">
         <v>37</v>
       </c>
@@ -12780,7 +12790,7 @@
         <v>41604.519</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B120" s="8" t="s">
         <v>38</v>
       </c>
@@ -12878,7 +12888,7 @@
         <v>39947.468000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B121" s="8" t="s">
         <v>39</v>
       </c>
@@ -12976,7 +12986,7 @@
         <v>44679.234000000004</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B122" s="8" t="s">
         <v>40</v>
       </c>
@@ -13074,7 +13084,7 @@
         <v>71400.763999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B123" s="8" t="s">
         <v>56</v>
       </c>
@@ -13172,7 +13182,7 @@
         <v>38742.171999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B124" s="8" t="s">
         <v>57</v>
       </c>
@@ -13270,7 +13280,7 @@
         <v>50426.273000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:33" s="20" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:33" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="24" t="s">
         <v>59</v>
@@ -13307,7 +13317,7 @@
       <c r="AF125" s="25"/>
       <c r="AG125" s="25"/>
     </row>
-    <row r="126" spans="1:33" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B126" s="8" t="s">
         <v>48</v>
       </c>
@@ -13405,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B127" s="8" t="s">
         <v>49</v>
       </c>
@@ -13503,7 +13513,7 @@
         <v>54782.741999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B128" s="8" t="s">
         <v>50</v>
       </c>
@@ -13601,7 +13611,7 @@
         <v>42981.940999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B129" s="8" t="s">
         <v>51</v>
       </c>
@@ -13699,7 +13709,7 @@
         <v>42023.01</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B130" s="8" t="s">
         <v>52</v>
       </c>
@@ -13797,7 +13807,7 @@
         <v>51233.578000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B131" s="8" t="s">
         <v>53</v>
       </c>
@@ -13895,7 +13905,7 @@
         <v>118626.762</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B132" s="8" t="s">
         <v>54</v>
       </c>
@@ -13993,7 +14003,7 @@
         <v>42152.152999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B133" s="8" t="s">
         <v>55</v>
       </c>
@@ -14091,7 +14101,7 @@
         <v>52401.462999999996</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B134" s="8" t="s">
         <v>35</v>
       </c>
@@ -14189,7 +14199,7 @@
         <v>48399.856999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B135" s="8" t="s">
         <v>36</v>
       </c>
@@ -14287,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B136" s="8" t="s">
         <v>37</v>
       </c>
@@ -14385,7 +14395,7 @@
         <v>49296.616000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B137" s="8" t="s">
         <v>38</v>
       </c>
@@ -14483,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B138" s="8" t="s">
         <v>39</v>
       </c>
@@ -14581,7 +14591,7 @@
         <v>52104.9</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B139" s="8" t="s">
         <v>40</v>
       </c>
@@ -14679,7 +14689,7 @@
         <v>82666.054000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B140" s="8" t="s">
         <v>56</v>
       </c>
@@ -14777,7 +14787,7 @@
         <v>46721.110999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B141" s="8" t="s">
         <v>57</v>
       </c>
@@ -14875,13 +14885,13 @@
         <v>61902.583999999995</v>
       </c>
     </row>
-    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="29"/>
       <c r="B144" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C145" s="7">
         <v>2020</v>
       </c>
@@ -14976,7 +14986,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B146" s="8" t="s">
         <v>61</v>
       </c>
@@ -15074,7 +15084,7 @@
         <v>34223.758900205961</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B147" s="8" t="s">
         <v>62</v>
       </c>
@@ -15173,7 +15183,7 @@
       </c>
       <c r="AI147" s="31"/>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B148" s="8" t="s">
         <v>63</v>
       </c>
@@ -15271,13 +15281,13 @@
         <v>38083.262899259396</v>
       </c>
     </row>
-    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:35" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="29"/>
       <c r="B150" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C151" s="7">
         <v>2020</v>
       </c>
@@ -15372,7 +15382,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B152" s="30" t="s">
         <v>61</v>
       </c>
@@ -15470,7 +15480,7 @@
         <v>32757.347853553154</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B153" s="30" t="s">
         <v>62</v>
       </c>
@@ -15568,7 +15578,7 @@
         <v>36683.241130522299</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B154" s="8" t="s">
         <v>63</v>
       </c>
@@ -15666,7 +15676,7 @@
         <v>34512.987662623018</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C157" s="7"/>
       <c r="E157" s="31"/>
     </row>
@@ -15684,12 +15694,12 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>76</v>
       </c>
@@ -15697,7 +15707,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>2020</v>
       </c>
@@ -15708,7 +15718,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -15722,7 +15732,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -15736,7 +15746,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -15750,7 +15760,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -15764,7 +15774,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -15778,7 +15788,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -15786,7 +15796,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -15797,7 +15807,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -15814,7 +15824,7 @@
         <v>7.5308886519958804E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -15831,7 +15841,7 @@
         <v>0.17567573354125138</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -15848,7 +15858,7 @@
         <v>0.12991343885392936</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -15865,7 +15875,7 @@
         <v>0.59465216153992051</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -15882,7 +15892,7 @@
         <v>2.0904748863865383E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
@@ -15890,7 +15900,7 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>2020</v>
       </c>
@@ -15901,7 +15911,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -15918,13 +15928,13 @@
         <v>33227.961912950093</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>66</v>
       </c>
@@ -15933,7 +15943,7 @@
         <v>0.22203164776067363</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -15942,7 +15952,7 @@
         <v>0.34617198659342718</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -15950,7 +15960,7 @@
         <v>49996</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>68</v>
       </c>
@@ -15958,7 +15968,7 @@
         <v>39190.400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>69</v>
       </c>
@@ -15966,7 +15976,7 @@
         <v>32444.6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -15975,7 +15985,7 @@
         <v>0.21612929034322748</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -15999,17 +16009,17 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>2020</v>
       </c>
@@ -16104,7 +16114,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>126</v>
       </c>
@@ -16130,7 +16140,7 @@
         <v>59241</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>125</v>
       </c>
@@ -16156,7 +16166,7 @@
         <v>69394</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -16182,12 +16192,12 @@
         <v>101008</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2020</v>
       </c>
@@ -16282,7 +16292,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -16315,7 +16325,7 @@
         <v>53201.665332848308</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>125</v>
       </c>
@@ -16348,7 +16358,7 @@
         <v>62319.6158759588</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>124</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>90710.720817345107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>138</v>
       </c>
@@ -16414,7 +16424,7 @@
         <v>59927.367919640412</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>140</v>
       </c>
@@ -16422,7 +16432,7 @@
         <v>74481.20175540229</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>141</v>
       </c>
@@ -16431,7 +16441,7 @@
         <v>0.19540277939602735</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -16439,7 +16449,7 @@
         <v>60169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>143</v>
       </c>
@@ -16462,22 +16472,22 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -16485,12 +16495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -16501,7 +16511,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>99</v>
       </c>
@@ -16510,13 +16520,13 @@
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="39"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>97</v>
       </c>
@@ -16527,7 +16537,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Heavy freight'!A15</f>
         <v>6-7</v>
@@ -16549,17 +16559,17 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>86</v>
       </c>
@@ -16568,12 +16578,12 @@
         <v>124864</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="35" t="s">
         <v>86</v>
       </c>
@@ -16586,7 +16596,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>93</v>
       </c>
@@ -16598,12 +16608,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>90</v>
       </c>
@@ -16611,7 +16621,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="35" t="s">
         <v>86</v>
       </c>
@@ -16642,44 +16652,44 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="44">
         <v>43004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>93</v>
       </c>
@@ -16690,7 +16700,7 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="34">
         <v>154</v>
       </c>
@@ -16701,30 +16711,30 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="34"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>43802</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="43" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>113</v>
       </c>
@@ -16735,12 +16745,12 @@
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="B19" t="str">
         <f t="shared" ref="B19:B24" si="0">E27</f>
         <v>Average</v>
@@ -16752,7 +16762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
         <v>88</v>
       </c>
@@ -16769,7 +16779,7 @@
         <v>10395</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="35" t="s">
         <v>87</v>
       </c>
@@ -16786,7 +16796,7 @@
         <v>25795</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="35" t="s">
         <v>86</v>
       </c>
@@ -16803,7 +16813,7 @@
         <v>38500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="35">
         <v>8</v>
       </c>
@@ -16820,7 +16830,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
         <v>108</v>
       </c>
@@ -16837,15 +16847,15 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>111</v>
       </c>
@@ -16859,7 +16869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="35" t="s">
         <v>88</v>
       </c>
@@ -16878,7 +16888,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="35" t="s">
         <v>87</v>
       </c>
@@ -16897,7 +16907,7 @@
         <v>167.5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
         <v>86</v>
       </c>
@@ -16916,7 +16926,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="35">
         <v>8</v>
       </c>
@@ -16935,7 +16945,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="35" t="s">
         <v>108</v>
       </c>
@@ -16947,7 +16957,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
         <v>107</v>
       </c>
@@ -16958,17 +16968,17 @@
       <c r="F34" s="36"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
         <v>88</v>
       </c>
@@ -16988,7 +16998,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
         <v>87</v>
       </c>
@@ -17007,7 +17017,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
         <v>86</v>
       </c>
@@ -17026,7 +17036,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="35">
         <v>8</v>
       </c>
@@ -17045,7 +17055,7 @@
         <v>173.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="35" t="s">
         <v>105</v>
       </c>
@@ -17053,12 +17063,12 @@
         <v>201351</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>103</v>
       </c>
@@ -17083,13 +17093,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -17190,7 +17200,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -17315,7 +17325,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -17448,7 +17458,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -17581,7 +17591,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -17714,7 +17724,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -17847,7 +17857,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -17996,13 +18006,13 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -18103,7 +18113,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -18235,7 +18245,7 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -18368,7 +18378,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18501,7 +18511,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -18634,7 +18644,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -18767,7 +18777,7 @@
         <v>0.34797860071758074</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
